--- a/data/rallf_master.xlsx
+++ b/data/rallf_master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/junge037/Documents/Projects/rallf/rallf/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2EF0FCC-3632-654E-BA17-E86266A70ED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B4E530E-B283-F848-AD9E-8D50435265A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="yld_soil" sheetId="1" r:id="rId1"/>
@@ -911,7 +911,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL1009"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
     </sheetView>
@@ -43125,9 +43125,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:CI1000"/>
   <sheetViews>
-    <sheetView topLeftCell="BL1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="CB34" sqref="CB34"/>
+    <sheetView tabSelected="1" topLeftCell="BL1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="BY46" sqref="BY46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -50192,6 +50192,9 @@
       </c>
       <c r="BU36" s="22"/>
       <c r="BV36" s="22"/>
+      <c r="BW36" s="20">
+        <v>44869</v>
+      </c>
       <c r="BX36" s="23">
         <v>138</v>
       </c>
@@ -50389,6 +50392,9 @@
       </c>
       <c r="BU37" s="22"/>
       <c r="BV37" s="22"/>
+      <c r="BW37" s="20">
+        <v>44869</v>
+      </c>
       <c r="BX37" s="23">
         <v>285</v>
       </c>
@@ -50954,6 +50960,9 @@
       </c>
       <c r="BU40" s="22"/>
       <c r="BV40" s="22"/>
+      <c r="BW40" s="20">
+        <v>44869</v>
+      </c>
       <c r="BX40" s="23">
         <v>212</v>
       </c>
@@ -51151,6 +51160,9 @@
       </c>
       <c r="BU41" s="22"/>
       <c r="BV41" s="22"/>
+      <c r="BW41" s="20">
+        <v>44869</v>
+      </c>
       <c r="BX41" s="23">
         <v>333</v>
       </c>
@@ -51348,6 +51360,9 @@
       </c>
       <c r="BU42" s="22"/>
       <c r="BV42" s="22"/>
+      <c r="BW42" s="20">
+        <v>44869</v>
+      </c>
       <c r="BX42" s="23">
         <v>338</v>
       </c>
@@ -51545,6 +51560,9 @@
       </c>
       <c r="BU43" s="22"/>
       <c r="BV43" s="22"/>
+      <c r="BW43" s="20">
+        <v>44869</v>
+      </c>
       <c r="BX43" s="23">
         <v>176</v>
       </c>
@@ -52478,6 +52496,9 @@
       </c>
       <c r="BU48" s="22"/>
       <c r="BV48" s="22"/>
+      <c r="BW48" s="20">
+        <v>44869</v>
+      </c>
       <c r="BX48" s="23">
         <v>79</v>
       </c>
@@ -52675,6 +52696,9 @@
       </c>
       <c r="BU49" s="22"/>
       <c r="BV49" s="22"/>
+      <c r="BW49" s="20">
+        <v>44869</v>
+      </c>
       <c r="BX49" s="23">
         <v>207</v>
       </c>
@@ -53228,6 +53252,9 @@
       </c>
       <c r="BU52" s="22"/>
       <c r="BV52" s="22"/>
+      <c r="BW52" s="20">
+        <v>44862</v>
+      </c>
       <c r="BX52" s="23">
         <v>374</v>
       </c>
@@ -53425,6 +53452,9 @@
       </c>
       <c r="BU53" s="22"/>
       <c r="BV53" s="22"/>
+      <c r="BW53" s="20">
+        <v>44862</v>
+      </c>
       <c r="BX53" s="23">
         <v>102</v>
       </c>
@@ -53983,6 +54013,9 @@
       </c>
       <c r="BU56" s="22"/>
       <c r="BV56" s="22"/>
+      <c r="BW56" s="20">
+        <v>44862</v>
+      </c>
       <c r="BX56" s="23">
         <v>143</v>
       </c>
@@ -54180,6 +54213,9 @@
       </c>
       <c r="BU57" s="22"/>
       <c r="BV57" s="22"/>
+      <c r="BW57" s="20">
+        <v>44862</v>
+      </c>
       <c r="BX57" s="23">
         <v>191</v>
       </c>
@@ -54377,6 +54413,9 @@
       </c>
       <c r="BU58" s="22"/>
       <c r="BV58" s="22"/>
+      <c r="BW58" s="20">
+        <v>44862</v>
+      </c>
       <c r="BX58" s="23">
         <v>220</v>
       </c>
@@ -54574,6 +54613,9 @@
       </c>
       <c r="BU59" s="22"/>
       <c r="BV59" s="22"/>
+      <c r="BW59" s="20">
+        <v>44862</v>
+      </c>
       <c r="BX59" s="23">
         <v>217</v>
       </c>
@@ -55507,6 +55549,9 @@
       </c>
       <c r="BU64" s="22"/>
       <c r="BV64" s="22"/>
+      <c r="BW64" s="20">
+        <v>44862</v>
+      </c>
       <c r="BX64" s="23">
         <v>219</v>
       </c>
@@ -55697,6 +55742,9 @@
       </c>
       <c r="BU65" s="22"/>
       <c r="BV65" s="22"/>
+      <c r="BW65" s="20">
+        <v>44862</v>
+      </c>
       <c r="BX65" s="23">
         <v>263</v>
       </c>

--- a/data/rallf_master.xlsx
+++ b/data/rallf_master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/junge037/Documents/Projects/rallf/rallf/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B4E530E-B283-F848-AD9E-8D50435265A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0FB7349-B505-E84F-90C5-35358C6C68E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -471,9 +471,6 @@
     <t>LTRI2_rate</t>
   </si>
   <si>
-    <t>LTRI4_rate</t>
-  </si>
-  <si>
     <t>ave_rate</t>
   </si>
   <si>
@@ -490,6 +487,9 @@
   </si>
   <si>
     <t>5th</t>
+  </si>
+  <si>
+    <t>LTRI3_rate</t>
   </si>
 </sst>
 </file>
@@ -912,7 +912,7 @@
   <dimension ref="A1:AL1009"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A174" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -1035,7 +1035,7 @@
         <v>21</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I2" s="7">
         <v>210228</v>
@@ -1091,7 +1091,7 @@
         <v>21</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I3" s="7">
         <v>210229</v>
@@ -1147,7 +1147,7 @@
         <v>21</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I4" s="7">
         <v>210230</v>
@@ -1203,7 +1203,7 @@
         <v>21</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I5" s="7">
         <v>210231</v>
@@ -1259,7 +1259,7 @@
         <v>21</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I6" s="7">
         <v>210232</v>
@@ -1315,7 +1315,7 @@
         <v>21</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I7" s="7">
         <v>210233</v>
@@ -1371,7 +1371,7 @@
         <v>27</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I8" s="7">
         <v>210234</v>
@@ -1427,7 +1427,7 @@
         <v>27</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I9" s="7">
         <v>210235</v>
@@ -1483,7 +1483,7 @@
         <v>27</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I10" s="7">
         <v>210236</v>
@@ -1539,7 +1539,7 @@
         <v>27</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I11" s="7">
         <v>210237</v>
@@ -1595,7 +1595,7 @@
         <v>27</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I12" s="7">
         <v>210238</v>
@@ -1651,7 +1651,7 @@
         <v>27</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I13" s="7">
         <v>210239</v>
@@ -1707,7 +1707,7 @@
         <v>21</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I14" s="7">
         <v>210240</v>
@@ -1763,7 +1763,7 @@
         <v>21</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I15" s="7">
         <v>210241</v>
@@ -1819,7 +1819,7 @@
         <v>21</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I16" s="7">
         <v>210242</v>
@@ -1875,7 +1875,7 @@
         <v>21</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I17" s="7">
         <v>210243</v>
@@ -1931,7 +1931,7 @@
         <v>21</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I18" s="7">
         <v>210244</v>
@@ -1987,7 +1987,7 @@
         <v>21</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I19" s="7">
         <v>210245</v>
@@ -2043,7 +2043,7 @@
         <v>27</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I20" s="7">
         <v>210246</v>
@@ -2099,7 +2099,7 @@
         <v>27</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I21" s="7">
         <v>210247</v>
@@ -2155,7 +2155,7 @@
         <v>27</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I22" s="7">
         <v>210248</v>
@@ -2211,7 +2211,7 @@
         <v>27</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I23" s="7">
         <v>210249</v>
@@ -2267,7 +2267,7 @@
         <v>27</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I24" s="7">
         <v>210250</v>
@@ -2323,7 +2323,7 @@
         <v>27</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I25" s="7">
         <v>210251</v>
@@ -2379,7 +2379,7 @@
         <v>27</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I26" s="7">
         <v>210252</v>
@@ -2435,7 +2435,7 @@
         <v>27</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I27" s="7">
         <v>210253</v>
@@ -2491,7 +2491,7 @@
         <v>27</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I28" s="7">
         <v>210254</v>
@@ -2547,7 +2547,7 @@
         <v>27</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I29" s="7">
         <v>210255</v>
@@ -2603,7 +2603,7 @@
         <v>27</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I30" s="7">
         <v>210256</v>
@@ -2659,7 +2659,7 @@
         <v>27</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I31" s="7">
         <v>210257</v>
@@ -2715,7 +2715,7 @@
         <v>21</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I32" s="7">
         <v>210258</v>
@@ -2771,7 +2771,7 @@
         <v>21</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I33" s="7">
         <v>210259</v>
@@ -2827,7 +2827,7 @@
         <v>21</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I34" s="7">
         <v>210260</v>
@@ -2883,7 +2883,7 @@
         <v>21</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I35" s="7">
         <v>210261</v>
@@ -2939,7 +2939,7 @@
         <v>21</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I36" s="7">
         <v>210262</v>
@@ -2995,7 +2995,7 @@
         <v>21</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I37" s="7">
         <v>210263</v>
@@ -3051,7 +3051,7 @@
         <v>21</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I38" s="7">
         <v>210264</v>
@@ -3107,7 +3107,7 @@
         <v>21</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I39" s="7">
         <v>210265</v>
@@ -3163,7 +3163,7 @@
         <v>21</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I40" s="7">
         <v>210266</v>
@@ -3219,7 +3219,7 @@
         <v>21</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I41" s="7">
         <v>210267</v>
@@ -3275,7 +3275,7 @@
         <v>21</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I42" s="7">
         <v>210268</v>
@@ -3331,7 +3331,7 @@
         <v>21</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I43" s="7">
         <v>210269</v>
@@ -3387,7 +3387,7 @@
         <v>27</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I44" s="7">
         <v>210270</v>
@@ -3443,7 +3443,7 @@
         <v>27</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I45" s="7">
         <v>210271</v>
@@ -3499,7 +3499,7 @@
         <v>27</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I46" s="7">
         <v>210272</v>
@@ -3555,7 +3555,7 @@
         <v>27</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I47" s="7">
         <v>210273</v>
@@ -3611,7 +3611,7 @@
         <v>27</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I48" s="7">
         <v>210274</v>
@@ -3667,7 +3667,7 @@
         <v>27</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I49" s="7">
         <v>210275</v>
@@ -3723,7 +3723,7 @@
         <v>21</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I50" s="5">
         <v>210372</v>
@@ -3773,7 +3773,7 @@
         <v>21</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I51" s="5">
         <v>210373</v>
@@ -3823,7 +3823,7 @@
         <v>21</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I52" s="5">
         <v>210374</v>
@@ -3873,7 +3873,7 @@
         <v>21</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I53" s="5">
         <v>210375</v>
@@ -3923,7 +3923,7 @@
         <v>21</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I54" s="5">
         <v>210376</v>
@@ -3973,7 +3973,7 @@
         <v>21</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I55" s="5">
         <v>210377</v>
@@ -4023,7 +4023,7 @@
         <v>27</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I56" s="5">
         <v>210324</v>
@@ -4073,7 +4073,7 @@
         <v>27</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I57" s="5">
         <v>210325</v>
@@ -4123,7 +4123,7 @@
         <v>27</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I58" s="5">
         <v>210326</v>
@@ -4173,7 +4173,7 @@
         <v>27</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I59" s="5">
         <v>210327</v>
@@ -4223,7 +4223,7 @@
         <v>27</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I60" s="5">
         <v>210328</v>
@@ -4273,7 +4273,7 @@
         <v>27</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I61" s="5">
         <v>210329</v>
@@ -4323,7 +4323,7 @@
         <v>21</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I62" s="5">
         <v>210378</v>
@@ -4373,7 +4373,7 @@
         <v>21</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I63" s="5">
         <v>210379</v>
@@ -4423,7 +4423,7 @@
         <v>21</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I64" s="5">
         <v>210380</v>
@@ -4473,7 +4473,7 @@
         <v>21</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I65" s="5">
         <v>210381</v>
@@ -4523,7 +4523,7 @@
         <v>21</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I66" s="5">
         <v>210382</v>
@@ -4573,7 +4573,7 @@
         <v>21</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I67" s="5">
         <v>210383</v>
@@ -4623,7 +4623,7 @@
         <v>27</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I68" s="5">
         <v>210330</v>
@@ -4673,7 +4673,7 @@
         <v>27</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I69" s="5">
         <v>210331</v>
@@ -4723,7 +4723,7 @@
         <v>27</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I70" s="5">
         <v>210332</v>
@@ -4773,7 +4773,7 @@
         <v>27</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I71" s="5">
         <v>210333</v>
@@ -4823,7 +4823,7 @@
         <v>27</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I72" s="5">
         <v>210334</v>
@@ -4873,7 +4873,7 @@
         <v>27</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I73" s="5">
         <v>210335</v>
@@ -4923,7 +4923,7 @@
         <v>27</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I74" s="5">
         <v>210336</v>
@@ -4973,7 +4973,7 @@
         <v>27</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I75" s="5">
         <v>210337</v>
@@ -5023,7 +5023,7 @@
         <v>27</v>
       </c>
       <c r="H76" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I76" s="5">
         <v>210338</v>
@@ -5073,7 +5073,7 @@
         <v>27</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I77" s="5">
         <v>210339</v>
@@ -5123,7 +5123,7 @@
         <v>27</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I78" s="5">
         <v>210340</v>
@@ -5173,7 +5173,7 @@
         <v>27</v>
       </c>
       <c r="H79" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I79" s="5">
         <v>210341</v>
@@ -5223,7 +5223,7 @@
         <v>21</v>
       </c>
       <c r="H80" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I80" s="5">
         <v>210384</v>
@@ -5273,7 +5273,7 @@
         <v>21</v>
       </c>
       <c r="H81" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I81" s="5">
         <v>210385</v>
@@ -5323,7 +5323,7 @@
         <v>21</v>
       </c>
       <c r="H82" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I82" s="5">
         <v>210386</v>
@@ -5373,7 +5373,7 @@
         <v>21</v>
       </c>
       <c r="H83" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I83" s="5">
         <v>210387</v>
@@ -5423,7 +5423,7 @@
         <v>21</v>
       </c>
       <c r="H84" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I84" s="5">
         <v>210388</v>
@@ -5473,7 +5473,7 @@
         <v>21</v>
       </c>
       <c r="H85" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I85" s="5">
         <v>210389</v>
@@ -5523,7 +5523,7 @@
         <v>21</v>
       </c>
       <c r="H86" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I86" s="5">
         <v>210390</v>
@@ -5573,7 +5573,7 @@
         <v>21</v>
       </c>
       <c r="H87" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I87" s="5">
         <v>210391</v>
@@ -5623,7 +5623,7 @@
         <v>21</v>
       </c>
       <c r="H88" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I88" s="5">
         <v>210392</v>
@@ -5673,7 +5673,7 @@
         <v>21</v>
       </c>
       <c r="H89" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I89" s="5">
         <v>210393</v>
@@ -5723,7 +5723,7 @@
         <v>21</v>
       </c>
       <c r="H90" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I90" s="5">
         <v>210394</v>
@@ -5773,7 +5773,7 @@
         <v>21</v>
       </c>
       <c r="H91" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I91" s="5">
         <v>210395</v>
@@ -5823,7 +5823,7 @@
         <v>27</v>
       </c>
       <c r="H92" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I92" s="5">
         <v>210342</v>
@@ -5873,7 +5873,7 @@
         <v>27</v>
       </c>
       <c r="H93" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I93" s="5">
         <v>210343</v>
@@ -5923,7 +5923,7 @@
         <v>27</v>
       </c>
       <c r="H94" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I94" s="5">
         <v>210344</v>
@@ -5973,7 +5973,7 @@
         <v>27</v>
       </c>
       <c r="H95" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I95" s="5">
         <v>210345</v>
@@ -6023,7 +6023,7 @@
         <v>27</v>
       </c>
       <c r="H96" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I96" s="5">
         <v>210346</v>
@@ -6073,7 +6073,7 @@
         <v>27</v>
       </c>
       <c r="H97" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I97" s="5">
         <v>210347</v>
@@ -6123,7 +6123,7 @@
         <v>27</v>
       </c>
       <c r="H98" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I98" s="5">
         <v>210420</v>
@@ -6173,7 +6173,7 @@
         <v>27</v>
       </c>
       <c r="H99" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I99" s="5">
         <v>210421</v>
@@ -6223,7 +6223,7 @@
         <v>27</v>
       </c>
       <c r="H100" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I100" s="5">
         <v>210422</v>
@@ -6273,7 +6273,7 @@
         <v>27</v>
       </c>
       <c r="H101" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I101" s="5">
         <v>210423</v>
@@ -6323,7 +6323,7 @@
         <v>27</v>
       </c>
       <c r="H102" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I102" s="5">
         <v>210424</v>
@@ -6373,7 +6373,7 @@
         <v>27</v>
       </c>
       <c r="H103" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I103" s="5">
         <v>210425</v>
@@ -6423,7 +6423,7 @@
         <v>27</v>
       </c>
       <c r="H104" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I104" s="5">
         <v>210426</v>
@@ -6473,7 +6473,7 @@
         <v>27</v>
       </c>
       <c r="H105" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I105" s="5">
         <v>210427</v>
@@ -6523,7 +6523,7 @@
         <v>27</v>
       </c>
       <c r="H106" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I106" s="5">
         <v>210428</v>
@@ -6573,7 +6573,7 @@
         <v>27</v>
       </c>
       <c r="H107" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I107" s="5">
         <v>210429</v>
@@ -6623,7 +6623,7 @@
         <v>27</v>
       </c>
       <c r="H108" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I108" s="5">
         <v>210430</v>
@@ -6673,7 +6673,7 @@
         <v>27</v>
       </c>
       <c r="H109" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I109" s="5">
         <v>210431</v>
@@ -6723,7 +6723,7 @@
         <v>27</v>
       </c>
       <c r="H110" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I110" s="5">
         <v>210432</v>
@@ -6773,7 +6773,7 @@
         <v>27</v>
       </c>
       <c r="H111" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I111" s="5">
         <v>210433</v>
@@ -6823,7 +6823,7 @@
         <v>27</v>
       </c>
       <c r="H112" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I112" s="5">
         <v>210434</v>
@@ -6873,7 +6873,7 @@
         <v>27</v>
       </c>
       <c r="H113" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I113" s="5">
         <v>210435</v>
@@ -6923,7 +6923,7 @@
         <v>27</v>
       </c>
       <c r="H114" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I114" s="5">
         <v>210436</v>
@@ -6973,7 +6973,7 @@
         <v>27</v>
       </c>
       <c r="H115" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I115" s="5">
         <v>210437</v>
@@ -7023,7 +7023,7 @@
         <v>27</v>
       </c>
       <c r="H116" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I116" s="5">
         <v>210438</v>
@@ -7073,7 +7073,7 @@
         <v>27</v>
       </c>
       <c r="H117" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I117" s="5">
         <v>210439</v>
@@ -7123,7 +7123,7 @@
         <v>27</v>
       </c>
       <c r="H118" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I118" s="5">
         <v>210440</v>
@@ -7173,7 +7173,7 @@
         <v>27</v>
       </c>
       <c r="H119" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I119" s="5">
         <v>210441</v>
@@ -7223,7 +7223,7 @@
         <v>27</v>
       </c>
       <c r="H120" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I120" s="5">
         <v>210442</v>
@@ -7273,7 +7273,7 @@
         <v>27</v>
       </c>
       <c r="H121" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I121" s="5">
         <v>210443</v>
@@ -7323,7 +7323,7 @@
         <v>21</v>
       </c>
       <c r="H122" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I122" s="7">
         <v>210276</v>
@@ -7379,7 +7379,7 @@
         <v>21</v>
       </c>
       <c r="H123" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I123" s="7">
         <v>210277</v>
@@ -7435,7 +7435,7 @@
         <v>21</v>
       </c>
       <c r="H124" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I124" s="7">
         <v>210278</v>
@@ -7491,7 +7491,7 @@
         <v>21</v>
       </c>
       <c r="H125" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I125" s="7">
         <v>210279</v>
@@ -7547,7 +7547,7 @@
         <v>21</v>
       </c>
       <c r="H126" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I126" s="7">
         <v>210280</v>
@@ -7603,7 +7603,7 @@
         <v>21</v>
       </c>
       <c r="H127" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I127" s="7">
         <v>210281</v>
@@ -7659,7 +7659,7 @@
         <v>27</v>
       </c>
       <c r="H128" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I128" s="7">
         <v>210282</v>
@@ -7715,7 +7715,7 @@
         <v>27</v>
       </c>
       <c r="H129" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I129" s="7">
         <v>210283</v>
@@ -7771,7 +7771,7 @@
         <v>27</v>
       </c>
       <c r="H130" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I130" s="7">
         <v>210284</v>
@@ -7827,7 +7827,7 @@
         <v>27</v>
       </c>
       <c r="H131" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I131" s="7">
         <v>210285</v>
@@ -7883,7 +7883,7 @@
         <v>27</v>
       </c>
       <c r="H132" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I132" s="7">
         <v>210286</v>
@@ -7939,7 +7939,7 @@
         <v>27</v>
       </c>
       <c r="H133" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I133" s="7">
         <v>210287</v>
@@ -7995,7 +7995,7 @@
         <v>21</v>
       </c>
       <c r="H134" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I134" s="7">
         <v>210288</v>
@@ -8051,7 +8051,7 @@
         <v>21</v>
       </c>
       <c r="H135" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I135" s="7">
         <v>210289</v>
@@ -8107,7 +8107,7 @@
         <v>21</v>
       </c>
       <c r="H136" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I136" s="7">
         <v>210290</v>
@@ -8163,7 +8163,7 @@
         <v>21</v>
       </c>
       <c r="H137" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I137" s="7">
         <v>210291</v>
@@ -8219,7 +8219,7 @@
         <v>21</v>
       </c>
       <c r="H138" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I138" s="7">
         <v>210292</v>
@@ -8275,7 +8275,7 @@
         <v>21</v>
       </c>
       <c r="H139" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I139" s="7">
         <v>210293</v>
@@ -8331,7 +8331,7 @@
         <v>27</v>
       </c>
       <c r="H140" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I140" s="7">
         <v>210294</v>
@@ -8387,7 +8387,7 @@
         <v>27</v>
       </c>
       <c r="H141" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I141" s="7">
         <v>210295</v>
@@ -8443,7 +8443,7 @@
         <v>27</v>
       </c>
       <c r="H142" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I142" s="7">
         <v>210296</v>
@@ -8499,7 +8499,7 @@
         <v>27</v>
       </c>
       <c r="H143" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I143" s="7">
         <v>210297</v>
@@ -8555,7 +8555,7 @@
         <v>27</v>
       </c>
       <c r="H144" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I144" s="7">
         <v>210298</v>
@@ -8611,7 +8611,7 @@
         <v>27</v>
       </c>
       <c r="H145" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I145" s="7">
         <v>210299</v>
@@ -8667,7 +8667,7 @@
         <v>27</v>
       </c>
       <c r="H146" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I146" s="7">
         <v>210300</v>
@@ -8723,7 +8723,7 @@
         <v>27</v>
       </c>
       <c r="H147" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I147" s="7">
         <v>210301</v>
@@ -8779,7 +8779,7 @@
         <v>27</v>
       </c>
       <c r="H148" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I148" s="7">
         <v>210302</v>
@@ -8835,7 +8835,7 @@
         <v>27</v>
       </c>
       <c r="H149" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I149" s="7">
         <v>210303</v>
@@ -8891,7 +8891,7 @@
         <v>27</v>
       </c>
       <c r="H150" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I150" s="7">
         <v>210304</v>
@@ -8947,7 +8947,7 @@
         <v>27</v>
       </c>
       <c r="H151" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I151" s="7">
         <v>210305</v>
@@ -9003,7 +9003,7 @@
         <v>21</v>
       </c>
       <c r="H152" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I152" s="7">
         <v>210306</v>
@@ -9059,7 +9059,7 @@
         <v>21</v>
       </c>
       <c r="H153" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I153" s="7">
         <v>210307</v>
@@ -9115,7 +9115,7 @@
         <v>21</v>
       </c>
       <c r="H154" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I154" s="7">
         <v>210308</v>
@@ -9171,7 +9171,7 @@
         <v>21</v>
       </c>
       <c r="H155" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I155" s="7">
         <v>210309</v>
@@ -9227,7 +9227,7 @@
         <v>21</v>
       </c>
       <c r="H156" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I156" s="7">
         <v>210310</v>
@@ -9283,7 +9283,7 @@
         <v>21</v>
       </c>
       <c r="H157" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I157" s="7">
         <v>210311</v>
@@ -9339,7 +9339,7 @@
         <v>21</v>
       </c>
       <c r="H158" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I158" s="7">
         <v>210312</v>
@@ -9395,7 +9395,7 @@
         <v>21</v>
       </c>
       <c r="H159" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I159" s="7">
         <v>210313</v>
@@ -9451,7 +9451,7 @@
         <v>21</v>
       </c>
       <c r="H160" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I160" s="7">
         <v>210314</v>
@@ -9507,7 +9507,7 @@
         <v>21</v>
       </c>
       <c r="H161" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I161" s="7">
         <v>210315</v>
@@ -9563,7 +9563,7 @@
         <v>21</v>
       </c>
       <c r="H162" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I162" s="7">
         <v>210316</v>
@@ -9619,7 +9619,7 @@
         <v>21</v>
       </c>
       <c r="H163" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I163" s="7">
         <v>210317</v>
@@ -9675,7 +9675,7 @@
         <v>27</v>
       </c>
       <c r="H164" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I164" s="7">
         <v>210318</v>
@@ -9731,7 +9731,7 @@
         <v>27</v>
       </c>
       <c r="H165" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I165" s="7">
         <v>210319</v>
@@ -9787,7 +9787,7 @@
         <v>27</v>
       </c>
       <c r="H166" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I166" s="7">
         <v>210320</v>
@@ -9843,7 +9843,7 @@
         <v>27</v>
       </c>
       <c r="H167" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I167" s="7">
         <v>210321</v>
@@ -9899,7 +9899,7 @@
         <v>27</v>
       </c>
       <c r="H168" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I168" s="7">
         <v>210322</v>
@@ -9955,7 +9955,7 @@
         <v>27</v>
       </c>
       <c r="H169" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I169" s="7">
         <v>210323</v>
@@ -10011,7 +10011,7 @@
         <v>21</v>
       </c>
       <c r="H170" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I170" s="5">
         <v>210396</v>
@@ -10061,7 +10061,7 @@
         <v>21</v>
       </c>
       <c r="H171" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I171" s="5">
         <v>210397</v>
@@ -10111,7 +10111,7 @@
         <v>21</v>
       </c>
       <c r="H172" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I172" s="5">
         <v>210398</v>
@@ -10161,7 +10161,7 @@
         <v>21</v>
       </c>
       <c r="H173" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I173" s="5">
         <v>210399</v>
@@ -10211,7 +10211,7 @@
         <v>21</v>
       </c>
       <c r="H174" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I174" s="5">
         <v>210400</v>
@@ -10261,7 +10261,7 @@
         <v>21</v>
       </c>
       <c r="H175" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I175" s="5">
         <v>210401</v>
@@ -10311,7 +10311,7 @@
         <v>27</v>
       </c>
       <c r="H176" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I176" s="5">
         <v>210348</v>
@@ -10361,7 +10361,7 @@
         <v>27</v>
       </c>
       <c r="H177" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I177" s="5">
         <v>210349</v>
@@ -10411,7 +10411,7 @@
         <v>27</v>
       </c>
       <c r="H178" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I178" s="5">
         <v>210350</v>
@@ -10461,7 +10461,7 @@
         <v>27</v>
       </c>
       <c r="H179" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I179" s="5">
         <v>210351</v>
@@ -10511,7 +10511,7 @@
         <v>27</v>
       </c>
       <c r="H180" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I180" s="5">
         <v>210352</v>
@@ -10561,7 +10561,7 @@
         <v>27</v>
       </c>
       <c r="H181" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I181" s="5">
         <v>210353</v>
@@ -10611,7 +10611,7 @@
         <v>21</v>
       </c>
       <c r="H182" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I182" s="5">
         <v>210402</v>
@@ -10661,7 +10661,7 @@
         <v>21</v>
       </c>
       <c r="H183" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I183" s="5">
         <v>210403</v>
@@ -10711,7 +10711,7 @@
         <v>21</v>
       </c>
       <c r="H184" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I184" s="5">
         <v>210404</v>
@@ -10761,7 +10761,7 @@
         <v>21</v>
       </c>
       <c r="H185" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I185" s="5">
         <v>210405</v>
@@ -10811,7 +10811,7 @@
         <v>21</v>
       </c>
       <c r="H186" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I186" s="5">
         <v>210406</v>
@@ -10861,7 +10861,7 @@
         <v>21</v>
       </c>
       <c r="H187" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I187" s="5">
         <v>210407</v>
@@ -10911,7 +10911,7 @@
         <v>27</v>
       </c>
       <c r="H188" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I188" s="5">
         <v>210354</v>
@@ -10961,7 +10961,7 @@
         <v>27</v>
       </c>
       <c r="H189" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I189" s="5">
         <v>210355</v>
@@ -11011,7 +11011,7 @@
         <v>27</v>
       </c>
       <c r="H190" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I190" s="5">
         <v>210356</v>
@@ -11061,7 +11061,7 @@
         <v>27</v>
       </c>
       <c r="H191" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I191" s="5">
         <v>210357</v>
@@ -11111,7 +11111,7 @@
         <v>27</v>
       </c>
       <c r="H192" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I192" s="5">
         <v>210358</v>
@@ -11161,7 +11161,7 @@
         <v>27</v>
       </c>
       <c r="H193" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I193" s="5">
         <v>210359</v>
@@ -11211,7 +11211,7 @@
         <v>27</v>
       </c>
       <c r="H194" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I194" s="5">
         <v>210360</v>
@@ -11261,7 +11261,7 @@
         <v>27</v>
       </c>
       <c r="H195" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I195" s="5">
         <v>210361</v>
@@ -11311,7 +11311,7 @@
         <v>27</v>
       </c>
       <c r="H196" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I196" s="5">
         <v>210362</v>
@@ -11361,7 +11361,7 @@
         <v>27</v>
       </c>
       <c r="H197" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I197" s="5">
         <v>210363</v>
@@ -11411,7 +11411,7 @@
         <v>27</v>
       </c>
       <c r="H198" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I198" s="5">
         <v>210364</v>
@@ -11461,7 +11461,7 @@
         <v>27</v>
       </c>
       <c r="H199" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I199" s="5">
         <v>210365</v>
@@ -11511,7 +11511,7 @@
         <v>21</v>
       </c>
       <c r="H200" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I200" s="5">
         <v>210408</v>
@@ -11561,7 +11561,7 @@
         <v>21</v>
       </c>
       <c r="H201" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I201" s="5">
         <v>210409</v>
@@ -11611,7 +11611,7 @@
         <v>21</v>
       </c>
       <c r="H202" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I202" s="5">
         <v>210410</v>
@@ -11661,7 +11661,7 @@
         <v>21</v>
       </c>
       <c r="H203" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I203" s="5">
         <v>210411</v>
@@ -11711,7 +11711,7 @@
         <v>21</v>
       </c>
       <c r="H204" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I204" s="5">
         <v>210412</v>
@@ -11761,7 +11761,7 @@
         <v>21</v>
       </c>
       <c r="H205" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I205" s="5">
         <v>210413</v>
@@ -11811,7 +11811,7 @@
         <v>21</v>
       </c>
       <c r="H206" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I206" s="5">
         <v>210414</v>
@@ -11861,7 +11861,7 @@
         <v>21</v>
       </c>
       <c r="H207" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I207" s="5">
         <v>210415</v>
@@ -11911,7 +11911,7 @@
         <v>21</v>
       </c>
       <c r="H208" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I208" s="5">
         <v>210416</v>
@@ -11961,7 +11961,7 @@
         <v>21</v>
       </c>
       <c r="H209" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I209" s="5">
         <v>210417</v>
@@ -12011,7 +12011,7 @@
         <v>21</v>
       </c>
       <c r="H210" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I210" s="5">
         <v>210418</v>
@@ -12061,7 +12061,7 @@
         <v>21</v>
       </c>
       <c r="H211" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I211" s="5">
         <v>210419</v>
@@ -12111,7 +12111,7 @@
         <v>27</v>
       </c>
       <c r="H212" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I212" s="5">
         <v>210366</v>
@@ -12161,7 +12161,7 @@
         <v>27</v>
       </c>
       <c r="H213" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I213" s="5">
         <v>210367</v>
@@ -12211,7 +12211,7 @@
         <v>27</v>
       </c>
       <c r="H214" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I214" s="5">
         <v>210368</v>
@@ -12261,7 +12261,7 @@
         <v>27</v>
       </c>
       <c r="H215" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I215" s="5">
         <v>210369</v>
@@ -12311,7 +12311,7 @@
         <v>27</v>
       </c>
       <c r="H216" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I216" s="5">
         <v>210370</v>
@@ -12361,7 +12361,7 @@
         <v>27</v>
       </c>
       <c r="H217" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I217" s="5">
         <v>210371</v>
@@ -12411,7 +12411,7 @@
         <v>27</v>
       </c>
       <c r="H218" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I218" s="5">
         <v>210444</v>
@@ -12461,7 +12461,7 @@
         <v>27</v>
       </c>
       <c r="H219" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I219" s="5">
         <v>210445</v>
@@ -12511,7 +12511,7 @@
         <v>27</v>
       </c>
       <c r="H220" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I220" s="5">
         <v>210446</v>
@@ -12561,7 +12561,7 @@
         <v>27</v>
       </c>
       <c r="H221" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I221" s="5">
         <v>210447</v>
@@ -12611,7 +12611,7 @@
         <v>27</v>
       </c>
       <c r="H222" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I222" s="5">
         <v>210448</v>
@@ -12661,7 +12661,7 @@
         <v>27</v>
       </c>
       <c r="H223" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I223" s="5">
         <v>210449</v>
@@ -12711,7 +12711,7 @@
         <v>27</v>
       </c>
       <c r="H224" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I224" s="5">
         <v>210450</v>
@@ -12761,7 +12761,7 @@
         <v>27</v>
       </c>
       <c r="H225" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I225" s="5">
         <v>210451</v>
@@ -12811,7 +12811,7 @@
         <v>27</v>
       </c>
       <c r="H226" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I226" s="5">
         <v>210452</v>
@@ -12861,7 +12861,7 @@
         <v>27</v>
       </c>
       <c r="H227" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I227" s="5">
         <v>210453</v>
@@ -12911,7 +12911,7 @@
         <v>27</v>
       </c>
       <c r="H228" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I228" s="5">
         <v>210454</v>
@@ -12961,7 +12961,7 @@
         <v>27</v>
       </c>
       <c r="H229" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I229" s="5">
         <v>210455</v>
@@ -13011,7 +13011,7 @@
         <v>27</v>
       </c>
       <c r="H230" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I230" s="5">
         <v>210456</v>
@@ -13061,7 +13061,7 @@
         <v>27</v>
       </c>
       <c r="H231" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I231" s="5">
         <v>210457</v>
@@ -13111,7 +13111,7 @@
         <v>27</v>
       </c>
       <c r="H232" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I232" s="5">
         <v>210458</v>
@@ -13161,7 +13161,7 @@
         <v>27</v>
       </c>
       <c r="H233" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I233" s="5">
         <v>210459</v>
@@ -13211,7 +13211,7 @@
         <v>27</v>
       </c>
       <c r="H234" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I234" s="5">
         <v>210460</v>
@@ -13261,7 +13261,7 @@
         <v>27</v>
       </c>
       <c r="H235" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I235" s="5">
         <v>210461</v>
@@ -13311,7 +13311,7 @@
         <v>27</v>
       </c>
       <c r="H236" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I236" s="5">
         <v>210462</v>
@@ -13361,7 +13361,7 @@
         <v>27</v>
       </c>
       <c r="H237" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I237" s="5">
         <v>210463</v>
@@ -13411,7 +13411,7 @@
         <v>27</v>
       </c>
       <c r="H238" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I238" s="5">
         <v>210464</v>
@@ -13461,7 +13461,7 @@
         <v>27</v>
       </c>
       <c r="H239" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I239" s="5">
         <v>210465</v>
@@ -13511,7 +13511,7 @@
         <v>27</v>
       </c>
       <c r="H240" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I240" s="5">
         <v>210466</v>
@@ -13561,7 +13561,7 @@
         <v>27</v>
       </c>
       <c r="H241" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I241" s="5">
         <v>210467</v>
@@ -13611,7 +13611,7 @@
         <v>21</v>
       </c>
       <c r="H242" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I242" s="5">
         <v>220048</v>
@@ -13661,7 +13661,7 @@
         <v>21</v>
       </c>
       <c r="H243" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I243" s="5">
         <v>220049</v>
@@ -13711,7 +13711,7 @@
         <v>21</v>
       </c>
       <c r="H244" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I244" s="5">
         <v>220050</v>
@@ -13761,7 +13761,7 @@
         <v>21</v>
       </c>
       <c r="H245" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I245" s="5">
         <v>220051</v>
@@ -13811,7 +13811,7 @@
         <v>21</v>
       </c>
       <c r="H246" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I246" s="5">
         <v>220052</v>
@@ -13861,7 +13861,7 @@
         <v>21</v>
       </c>
       <c r="H247" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I247" s="5">
         <v>220053</v>
@@ -13911,7 +13911,7 @@
         <v>27</v>
       </c>
       <c r="H248" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I248" s="5">
         <v>220054</v>
@@ -13961,7 +13961,7 @@
         <v>27</v>
       </c>
       <c r="H249" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I249" s="5">
         <v>220055</v>
@@ -14011,7 +14011,7 @@
         <v>27</v>
       </c>
       <c r="H250" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I250" s="5">
         <v>220056</v>
@@ -14061,7 +14061,7 @@
         <v>27</v>
       </c>
       <c r="H251" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I251" s="5">
         <v>220057</v>
@@ -14111,7 +14111,7 @@
         <v>27</v>
       </c>
       <c r="H252" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I252" s="5">
         <v>220058</v>
@@ -14161,7 +14161,7 @@
         <v>27</v>
       </c>
       <c r="H253" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I253" s="5">
         <v>220059</v>
@@ -14211,7 +14211,7 @@
         <v>21</v>
       </c>
       <c r="H254" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I254" s="5">
         <v>220060</v>
@@ -14261,7 +14261,7 @@
         <v>21</v>
       </c>
       <c r="H255" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I255" s="5">
         <v>220061</v>
@@ -14311,7 +14311,7 @@
         <v>21</v>
       </c>
       <c r="H256" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I256" s="5">
         <v>220062</v>
@@ -14361,7 +14361,7 @@
         <v>21</v>
       </c>
       <c r="H257" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I257" s="5">
         <v>220063</v>
@@ -14411,7 +14411,7 @@
         <v>21</v>
       </c>
       <c r="H258" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I258" s="5">
         <v>220064</v>
@@ -14461,7 +14461,7 @@
         <v>21</v>
       </c>
       <c r="H259" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I259" s="5">
         <v>220065</v>
@@ -14511,7 +14511,7 @@
         <v>27</v>
       </c>
       <c r="H260" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I260" s="5">
         <v>220066</v>
@@ -14561,7 +14561,7 @@
         <v>27</v>
       </c>
       <c r="H261" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I261" s="5">
         <v>220067</v>
@@ -14611,7 +14611,7 @@
         <v>27</v>
       </c>
       <c r="H262" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I262" s="5">
         <v>220068</v>
@@ -14661,7 +14661,7 @@
         <v>27</v>
       </c>
       <c r="H263" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I263" s="5">
         <v>220069</v>
@@ -14711,7 +14711,7 @@
         <v>27</v>
       </c>
       <c r="H264" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I264" s="5">
         <v>220070</v>
@@ -14761,7 +14761,7 @@
         <v>27</v>
       </c>
       <c r="H265" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I265" s="5">
         <v>220071</v>
@@ -14811,7 +14811,7 @@
         <v>27</v>
       </c>
       <c r="H266" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I266" s="5">
         <v>220072</v>
@@ -14861,7 +14861,7 @@
         <v>27</v>
       </c>
       <c r="H267" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I267" s="5">
         <v>220073</v>
@@ -14911,7 +14911,7 @@
         <v>27</v>
       </c>
       <c r="H268" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I268" s="5">
         <v>220074</v>
@@ -14961,7 +14961,7 @@
         <v>27</v>
       </c>
       <c r="H269" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I269" s="5">
         <v>220075</v>
@@ -15011,7 +15011,7 @@
         <v>27</v>
       </c>
       <c r="H270" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I270" s="5">
         <v>220076</v>
@@ -15061,7 +15061,7 @@
         <v>27</v>
       </c>
       <c r="H271" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I271" s="5">
         <v>220077</v>
@@ -15111,7 +15111,7 @@
         <v>21</v>
       </c>
       <c r="H272" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I272" s="5">
         <v>220078</v>
@@ -15161,7 +15161,7 @@
         <v>21</v>
       </c>
       <c r="H273" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I273" s="5">
         <v>220079</v>
@@ -15211,7 +15211,7 @@
         <v>21</v>
       </c>
       <c r="H274" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I274" s="5">
         <v>220080</v>
@@ -15261,7 +15261,7 @@
         <v>21</v>
       </c>
       <c r="H275" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I275" s="5">
         <v>220081</v>
@@ -15311,7 +15311,7 @@
         <v>21</v>
       </c>
       <c r="H276" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I276" s="5">
         <v>220082</v>
@@ -15361,7 +15361,7 @@
         <v>21</v>
       </c>
       <c r="H277" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I277" s="5">
         <v>220083</v>
@@ -15411,7 +15411,7 @@
         <v>21</v>
       </c>
       <c r="H278" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I278" s="5">
         <v>220084</v>
@@ -15461,7 +15461,7 @@
         <v>21</v>
       </c>
       <c r="H279" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I279" s="5">
         <v>220085</v>
@@ -15511,7 +15511,7 @@
         <v>21</v>
       </c>
       <c r="H280" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I280" s="5">
         <v>220086</v>
@@ -15561,7 +15561,7 @@
         <v>21</v>
       </c>
       <c r="H281" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I281" s="5">
         <v>220087</v>
@@ -15611,7 +15611,7 @@
         <v>21</v>
       </c>
       <c r="H282" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I282" s="5">
         <v>220088</v>
@@ -15661,7 +15661,7 @@
         <v>21</v>
       </c>
       <c r="H283" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I283" s="5">
         <v>220089</v>
@@ -15711,7 +15711,7 @@
         <v>27</v>
       </c>
       <c r="H284" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I284" s="5">
         <v>220090</v>
@@ -15761,7 +15761,7 @@
         <v>27</v>
       </c>
       <c r="H285" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I285" s="5">
         <v>220091</v>
@@ -15811,7 +15811,7 @@
         <v>27</v>
       </c>
       <c r="H286" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I286" s="5">
         <v>220092</v>
@@ -15861,7 +15861,7 @@
         <v>27</v>
       </c>
       <c r="H287" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I287" s="5">
         <v>220093</v>
@@ -15911,7 +15911,7 @@
         <v>27</v>
       </c>
       <c r="H288" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I288" s="5">
         <v>220094</v>
@@ -15961,7 +15961,7 @@
         <v>27</v>
       </c>
       <c r="H289" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I289" s="5">
         <v>220095</v>
@@ -16011,7 +16011,7 @@
         <v>21</v>
       </c>
       <c r="H290" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I290" s="5">
         <v>220144</v>
@@ -16061,7 +16061,7 @@
         <v>21</v>
       </c>
       <c r="H291" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I291" s="5">
         <v>220145</v>
@@ -16111,7 +16111,7 @@
         <v>21</v>
       </c>
       <c r="H292" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I292" s="5">
         <v>220146</v>
@@ -16161,7 +16161,7 @@
         <v>21</v>
       </c>
       <c r="H293" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I293" s="5">
         <v>220147</v>
@@ -16211,7 +16211,7 @@
         <v>21</v>
       </c>
       <c r="H294" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I294" s="5">
         <v>220148</v>
@@ -16261,7 +16261,7 @@
         <v>21</v>
       </c>
       <c r="H295" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I295" s="5">
         <v>220149</v>
@@ -16311,7 +16311,7 @@
         <v>27</v>
       </c>
       <c r="H296" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I296" s="5">
         <v>220096</v>
@@ -16361,7 +16361,7 @@
         <v>27</v>
       </c>
       <c r="H297" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I297" s="5">
         <v>220097</v>
@@ -16411,7 +16411,7 @@
         <v>27</v>
       </c>
       <c r="H298" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I298" s="5">
         <v>220098</v>
@@ -16461,7 +16461,7 @@
         <v>27</v>
       </c>
       <c r="H299" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I299" s="5">
         <v>220099</v>
@@ -16511,7 +16511,7 @@
         <v>27</v>
       </c>
       <c r="H300" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I300" s="5">
         <v>220100</v>
@@ -16561,7 +16561,7 @@
         <v>27</v>
       </c>
       <c r="H301" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I301" s="5">
         <v>220101</v>
@@ -16611,7 +16611,7 @@
         <v>21</v>
       </c>
       <c r="H302" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I302" s="5">
         <v>220150</v>
@@ -16661,7 +16661,7 @@
         <v>21</v>
       </c>
       <c r="H303" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I303" s="5">
         <v>220151</v>
@@ -16711,7 +16711,7 @@
         <v>21</v>
       </c>
       <c r="H304" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I304" s="5">
         <v>220152</v>
@@ -16761,7 +16761,7 @@
         <v>21</v>
       </c>
       <c r="H305" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I305" s="5">
         <v>220153</v>
@@ -16811,7 +16811,7 @@
         <v>21</v>
       </c>
       <c r="H306" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I306" s="5">
         <v>220154</v>
@@ -16861,7 +16861,7 @@
         <v>21</v>
       </c>
       <c r="H307" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I307" s="5">
         <v>220155</v>
@@ -16911,7 +16911,7 @@
         <v>27</v>
       </c>
       <c r="H308" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I308" s="5">
         <v>220102</v>
@@ -16961,7 +16961,7 @@
         <v>27</v>
       </c>
       <c r="H309" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I309" s="5">
         <v>220103</v>
@@ -17011,7 +17011,7 @@
         <v>27</v>
       </c>
       <c r="H310" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I310" s="5">
         <v>220104</v>
@@ -17061,7 +17061,7 @@
         <v>27</v>
       </c>
       <c r="H311" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I311" s="5">
         <v>220105</v>
@@ -17111,7 +17111,7 @@
         <v>27</v>
       </c>
       <c r="H312" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I312" s="5">
         <v>220106</v>
@@ -17161,7 +17161,7 @@
         <v>27</v>
       </c>
       <c r="H313" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I313" s="5">
         <v>220107</v>
@@ -17211,7 +17211,7 @@
         <v>27</v>
       </c>
       <c r="H314" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I314" s="5">
         <v>220108</v>
@@ -17261,7 +17261,7 @@
         <v>27</v>
       </c>
       <c r="H315" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I315" s="5">
         <v>220109</v>
@@ -17311,7 +17311,7 @@
         <v>27</v>
       </c>
       <c r="H316" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I316" s="5">
         <v>220110</v>
@@ -17361,7 +17361,7 @@
         <v>27</v>
       </c>
       <c r="H317" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I317" s="5">
         <v>220111</v>
@@ -17411,7 +17411,7 @@
         <v>27</v>
       </c>
       <c r="H318" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I318" s="5">
         <v>220112</v>
@@ -17461,7 +17461,7 @@
         <v>27</v>
       </c>
       <c r="H319" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I319" s="5">
         <v>220113</v>
@@ -17511,7 +17511,7 @@
         <v>21</v>
       </c>
       <c r="H320" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I320" s="5">
         <v>220156</v>
@@ -17561,7 +17561,7 @@
         <v>21</v>
       </c>
       <c r="H321" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I321" s="5">
         <v>220157</v>
@@ -17611,7 +17611,7 @@
         <v>21</v>
       </c>
       <c r="H322" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I322" s="5">
         <v>220158</v>
@@ -17661,7 +17661,7 @@
         <v>21</v>
       </c>
       <c r="H323" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I323" s="5">
         <v>220159</v>
@@ -17711,7 +17711,7 @@
         <v>21</v>
       </c>
       <c r="H324" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I324" s="5">
         <v>220160</v>
@@ -17761,7 +17761,7 @@
         <v>21</v>
       </c>
       <c r="H325" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I325" s="5">
         <v>220161</v>
@@ -17811,7 +17811,7 @@
         <v>21</v>
       </c>
       <c r="H326" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I326" s="5">
         <v>220162</v>
@@ -17861,7 +17861,7 @@
         <v>21</v>
       </c>
       <c r="H327" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I327" s="5">
         <v>220163</v>
@@ -17911,7 +17911,7 @@
         <v>21</v>
       </c>
       <c r="H328" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I328" s="5">
         <v>220164</v>
@@ -17961,7 +17961,7 @@
         <v>21</v>
       </c>
       <c r="H329" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I329" s="5">
         <v>220165</v>
@@ -18011,7 +18011,7 @@
         <v>21</v>
       </c>
       <c r="H330" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I330" s="5">
         <v>220166</v>
@@ -18061,7 +18061,7 @@
         <v>21</v>
       </c>
       <c r="H331" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I331" s="5">
         <v>220167</v>
@@ -18111,7 +18111,7 @@
         <v>27</v>
       </c>
       <c r="H332" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I332" s="5">
         <v>220114</v>
@@ -18161,7 +18161,7 @@
         <v>27</v>
       </c>
       <c r="H333" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I333" s="5">
         <v>220115</v>
@@ -18211,7 +18211,7 @@
         <v>27</v>
       </c>
       <c r="H334" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I334" s="5">
         <v>220116</v>
@@ -18261,7 +18261,7 @@
         <v>27</v>
       </c>
       <c r="H335" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I335" s="5">
         <v>220117</v>
@@ -18311,7 +18311,7 @@
         <v>27</v>
       </c>
       <c r="H336" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I336" s="5">
         <v>220118</v>
@@ -18361,7 +18361,7 @@
         <v>27</v>
       </c>
       <c r="H337" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I337" s="5">
         <v>220119</v>
@@ -18411,7 +18411,7 @@
         <v>21</v>
       </c>
       <c r="H338" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I338" s="5">
         <v>220240</v>
@@ -18461,7 +18461,7 @@
         <v>21</v>
       </c>
       <c r="H339" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I339" s="5">
         <v>220241</v>
@@ -18511,7 +18511,7 @@
         <v>21</v>
       </c>
       <c r="H340" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I340" s="5">
         <v>220242</v>
@@ -18561,7 +18561,7 @@
         <v>21</v>
       </c>
       <c r="H341" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I341" s="5">
         <v>220243</v>
@@ -18611,7 +18611,7 @@
         <v>21</v>
       </c>
       <c r="H342" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I342" s="5">
         <v>220244</v>
@@ -18661,7 +18661,7 @@
         <v>21</v>
       </c>
       <c r="H343" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I343" s="5">
         <v>220245</v>
@@ -18711,7 +18711,7 @@
         <v>27</v>
       </c>
       <c r="H344" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I344" s="5">
         <v>220192</v>
@@ -18761,7 +18761,7 @@
         <v>27</v>
       </c>
       <c r="H345" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I345" s="5">
         <v>220193</v>
@@ -18811,7 +18811,7 @@
         <v>27</v>
       </c>
       <c r="H346" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I346" s="5">
         <v>220194</v>
@@ -18861,7 +18861,7 @@
         <v>27</v>
       </c>
       <c r="H347" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I347" s="5">
         <v>220195</v>
@@ -18911,7 +18911,7 @@
         <v>27</v>
       </c>
       <c r="H348" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I348" s="5">
         <v>220196</v>
@@ -18961,7 +18961,7 @@
         <v>27</v>
       </c>
       <c r="H349" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I349" s="5">
         <v>220197</v>
@@ -19011,7 +19011,7 @@
         <v>21</v>
       </c>
       <c r="H350" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I350" s="5">
         <v>220246</v>
@@ -19061,7 +19061,7 @@
         <v>21</v>
       </c>
       <c r="H351" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I351" s="5">
         <v>220247</v>
@@ -19111,7 +19111,7 @@
         <v>21</v>
       </c>
       <c r="H352" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I352" s="5">
         <v>220248</v>
@@ -19161,7 +19161,7 @@
         <v>21</v>
       </c>
       <c r="H353" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I353" s="5">
         <v>220249</v>
@@ -19211,7 +19211,7 @@
         <v>21</v>
       </c>
       <c r="H354" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I354" s="5">
         <v>220250</v>
@@ -19261,7 +19261,7 @@
         <v>21</v>
       </c>
       <c r="H355" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I355" s="5">
         <v>220251</v>
@@ -19311,7 +19311,7 @@
         <v>27</v>
       </c>
       <c r="H356" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I356" s="5">
         <v>220198</v>
@@ -19361,7 +19361,7 @@
         <v>27</v>
       </c>
       <c r="H357" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I357" s="5">
         <v>220199</v>
@@ -19411,7 +19411,7 @@
         <v>27</v>
       </c>
       <c r="H358" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I358" s="5">
         <v>220200</v>
@@ -19461,7 +19461,7 @@
         <v>27</v>
       </c>
       <c r="H359" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I359" s="5">
         <v>220201</v>
@@ -19511,7 +19511,7 @@
         <v>27</v>
       </c>
       <c r="H360" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I360" s="5">
         <v>220202</v>
@@ -19561,7 +19561,7 @@
         <v>27</v>
       </c>
       <c r="H361" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I361" s="5">
         <v>220203</v>
@@ -19611,7 +19611,7 @@
         <v>27</v>
       </c>
       <c r="H362" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I362" s="5">
         <v>220204</v>
@@ -19661,7 +19661,7 @@
         <v>27</v>
       </c>
       <c r="H363" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I363" s="5">
         <v>220205</v>
@@ -19711,7 +19711,7 @@
         <v>27</v>
       </c>
       <c r="H364" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I364" s="5">
         <v>220206</v>
@@ -19761,7 +19761,7 @@
         <v>27</v>
       </c>
       <c r="H365" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I365" s="5">
         <v>220207</v>
@@ -19811,7 +19811,7 @@
         <v>27</v>
       </c>
       <c r="H366" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I366" s="5">
         <v>220208</v>
@@ -19861,7 +19861,7 @@
         <v>27</v>
       </c>
       <c r="H367" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I367" s="5">
         <v>220209</v>
@@ -19911,7 +19911,7 @@
         <v>21</v>
       </c>
       <c r="H368" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I368" s="5">
         <v>220252</v>
@@ -19961,7 +19961,7 @@
         <v>21</v>
       </c>
       <c r="H369" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I369" s="5">
         <v>220253</v>
@@ -20011,7 +20011,7 @@
         <v>21</v>
       </c>
       <c r="H370" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I370" s="5">
         <v>220254</v>
@@ -20061,7 +20061,7 @@
         <v>21</v>
       </c>
       <c r="H371" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I371" s="5">
         <v>220255</v>
@@ -20111,7 +20111,7 @@
         <v>21</v>
       </c>
       <c r="H372" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I372" s="5">
         <v>220256</v>
@@ -20161,7 +20161,7 @@
         <v>21</v>
       </c>
       <c r="H373" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I373" s="5">
         <v>220257</v>
@@ -20211,7 +20211,7 @@
         <v>21</v>
       </c>
       <c r="H374" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I374" s="5">
         <v>220258</v>
@@ -20261,7 +20261,7 @@
         <v>21</v>
       </c>
       <c r="H375" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I375" s="5">
         <v>220259</v>
@@ -20311,7 +20311,7 @@
         <v>21</v>
       </c>
       <c r="H376" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I376" s="5">
         <v>220260</v>
@@ -20361,7 +20361,7 @@
         <v>21</v>
       </c>
       <c r="H377" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I377" s="5">
         <v>220261</v>
@@ -20411,7 +20411,7 @@
         <v>21</v>
       </c>
       <c r="H378" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I378" s="5">
         <v>220262</v>
@@ -20461,7 +20461,7 @@
         <v>21</v>
       </c>
       <c r="H379" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I379" s="5">
         <v>220263</v>
@@ -20511,7 +20511,7 @@
         <v>27</v>
       </c>
       <c r="H380" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I380" s="5">
         <v>220210</v>
@@ -20561,7 +20561,7 @@
         <v>27</v>
       </c>
       <c r="H381" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I381" s="5">
         <v>220211</v>
@@ -20611,7 +20611,7 @@
         <v>27</v>
       </c>
       <c r="H382" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I382" s="5">
         <v>220212</v>
@@ -20661,7 +20661,7 @@
         <v>27</v>
       </c>
       <c r="H383" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I383" s="5">
         <v>220213</v>
@@ -20711,7 +20711,7 @@
         <v>27</v>
       </c>
       <c r="H384" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I384" s="5">
         <v>220214</v>
@@ -20761,7 +20761,7 @@
         <v>27</v>
       </c>
       <c r="H385" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I385" s="5">
         <v>220215</v>
@@ -20811,7 +20811,7 @@
         <v>27</v>
       </c>
       <c r="H386" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I386" s="5">
         <v>220288</v>
@@ -20861,7 +20861,7 @@
         <v>27</v>
       </c>
       <c r="H387" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I387" s="5">
         <v>220289</v>
@@ -20911,7 +20911,7 @@
         <v>27</v>
       </c>
       <c r="H388" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I388" s="5">
         <v>220290</v>
@@ -20961,7 +20961,7 @@
         <v>27</v>
       </c>
       <c r="H389" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I389" s="5">
         <v>220291</v>
@@ -21011,7 +21011,7 @@
         <v>27</v>
       </c>
       <c r="H390" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I390" s="5">
         <v>220292</v>
@@ -21061,7 +21061,7 @@
         <v>27</v>
       </c>
       <c r="H391" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I391" s="5">
         <v>220293</v>
@@ -21111,7 +21111,7 @@
         <v>27</v>
       </c>
       <c r="H392" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I392" s="5">
         <v>220294</v>
@@ -21161,7 +21161,7 @@
         <v>27</v>
       </c>
       <c r="H393" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I393" s="5">
         <v>220295</v>
@@ -21211,7 +21211,7 @@
         <v>27</v>
       </c>
       <c r="H394" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I394" s="5">
         <v>220296</v>
@@ -21261,7 +21261,7 @@
         <v>27</v>
       </c>
       <c r="H395" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I395" s="5">
         <v>220297</v>
@@ -21311,7 +21311,7 @@
         <v>27</v>
       </c>
       <c r="H396" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I396" s="5">
         <v>220298</v>
@@ -21361,7 +21361,7 @@
         <v>27</v>
       </c>
       <c r="H397" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I397" s="5">
         <v>220299</v>
@@ -21411,7 +21411,7 @@
         <v>27</v>
       </c>
       <c r="H398" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I398" s="5">
         <v>220300</v>
@@ -21461,7 +21461,7 @@
         <v>27</v>
       </c>
       <c r="H399" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I399" s="5">
         <v>220301</v>
@@ -21511,7 +21511,7 @@
         <v>27</v>
       </c>
       <c r="H400" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I400" s="5">
         <v>220302</v>
@@ -21561,7 +21561,7 @@
         <v>27</v>
       </c>
       <c r="H401" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I401" s="5">
         <v>220303</v>
@@ -21611,7 +21611,7 @@
         <v>27</v>
       </c>
       <c r="H402" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I402" s="5">
         <v>220304</v>
@@ -21661,7 +21661,7 @@
         <v>27</v>
       </c>
       <c r="H403" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I403" s="5">
         <v>220305</v>
@@ -21711,7 +21711,7 @@
         <v>27</v>
       </c>
       <c r="H404" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I404" s="5">
         <v>220306</v>
@@ -21761,7 +21761,7 @@
         <v>27</v>
       </c>
       <c r="H405" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I405" s="5">
         <v>220307</v>
@@ -21811,7 +21811,7 @@
         <v>27</v>
       </c>
       <c r="H406" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I406" s="5">
         <v>220308</v>
@@ -21861,7 +21861,7 @@
         <v>27</v>
       </c>
       <c r="H407" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I407" s="5">
         <v>220309</v>
@@ -21911,7 +21911,7 @@
         <v>27</v>
       </c>
       <c r="H408" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I408" s="5">
         <v>220310</v>
@@ -21961,7 +21961,7 @@
         <v>27</v>
       </c>
       <c r="H409" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I409" s="5">
         <v>220311</v>
@@ -22011,7 +22011,7 @@
         <v>21</v>
       </c>
       <c r="H410" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I410" s="5">
         <v>220000</v>
@@ -22061,7 +22061,7 @@
         <v>21</v>
       </c>
       <c r="H411" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I411" s="5">
         <v>220001</v>
@@ -22111,7 +22111,7 @@
         <v>21</v>
       </c>
       <c r="H412" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I412" s="5">
         <v>220002</v>
@@ -22161,7 +22161,7 @@
         <v>21</v>
       </c>
       <c r="H413" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I413" s="5">
         <v>220003</v>
@@ -22211,7 +22211,7 @@
         <v>21</v>
       </c>
       <c r="H414" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I414" s="5">
         <v>220004</v>
@@ -22261,7 +22261,7 @@
         <v>21</v>
       </c>
       <c r="H415" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I415" s="5">
         <v>220005</v>
@@ -22311,7 +22311,7 @@
         <v>27</v>
       </c>
       <c r="H416" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I416" s="5">
         <v>220006</v>
@@ -22361,7 +22361,7 @@
         <v>27</v>
       </c>
       <c r="H417" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I417" s="5">
         <v>220007</v>
@@ -22411,7 +22411,7 @@
         <v>27</v>
       </c>
       <c r="H418" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I418" s="5">
         <v>220008</v>
@@ -22461,7 +22461,7 @@
         <v>27</v>
       </c>
       <c r="H419" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I419" s="5">
         <v>220009</v>
@@ -22511,7 +22511,7 @@
         <v>27</v>
       </c>
       <c r="H420" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I420" s="5">
         <v>220010</v>
@@ -22561,7 +22561,7 @@
         <v>27</v>
       </c>
       <c r="H421" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I421" s="5">
         <v>220011</v>
@@ -22611,7 +22611,7 @@
         <v>21</v>
       </c>
       <c r="H422" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I422" s="5">
         <v>220012</v>
@@ -22661,7 +22661,7 @@
         <v>21</v>
       </c>
       <c r="H423" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I423" s="5">
         <v>220013</v>
@@ -22711,7 +22711,7 @@
         <v>21</v>
       </c>
       <c r="H424" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I424" s="5">
         <v>220014</v>
@@ -22761,7 +22761,7 @@
         <v>21</v>
       </c>
       <c r="H425" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I425" s="5">
         <v>220015</v>
@@ -22811,7 +22811,7 @@
         <v>21</v>
       </c>
       <c r="H426" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I426" s="5">
         <v>220016</v>
@@ -22861,7 +22861,7 @@
         <v>21</v>
       </c>
       <c r="H427" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I427" s="5">
         <v>220017</v>
@@ -22911,7 +22911,7 @@
         <v>27</v>
       </c>
       <c r="H428" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I428" s="5">
         <v>220018</v>
@@ -22961,7 +22961,7 @@
         <v>27</v>
       </c>
       <c r="H429" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I429" s="5">
         <v>220019</v>
@@ -23011,7 +23011,7 @@
         <v>27</v>
       </c>
       <c r="H430" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I430" s="5">
         <v>220020</v>
@@ -23061,7 +23061,7 @@
         <v>27</v>
       </c>
       <c r="H431" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I431" s="5">
         <v>220021</v>
@@ -23111,7 +23111,7 @@
         <v>27</v>
       </c>
       <c r="H432" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I432" s="5">
         <v>220022</v>
@@ -23161,7 +23161,7 @@
         <v>27</v>
       </c>
       <c r="H433" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I433" s="5">
         <v>220023</v>
@@ -23211,7 +23211,7 @@
         <v>27</v>
       </c>
       <c r="H434" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I434" s="5">
         <v>220024</v>
@@ -23261,7 +23261,7 @@
         <v>27</v>
       </c>
       <c r="H435" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I435" s="5">
         <v>220025</v>
@@ -23311,7 +23311,7 @@
         <v>27</v>
       </c>
       <c r="H436" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I436" s="5">
         <v>220026</v>
@@ -23361,7 +23361,7 @@
         <v>27</v>
       </c>
       <c r="H437" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I437" s="5">
         <v>220027</v>
@@ -23411,7 +23411,7 @@
         <v>27</v>
       </c>
       <c r="H438" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I438" s="5">
         <v>220028</v>
@@ -23461,7 +23461,7 @@
         <v>27</v>
       </c>
       <c r="H439" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I439" s="5">
         <v>220029</v>
@@ -23511,7 +23511,7 @@
         <v>21</v>
       </c>
       <c r="H440" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I440" s="5">
         <v>220030</v>
@@ -23561,7 +23561,7 @@
         <v>21</v>
       </c>
       <c r="H441" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I441" s="5">
         <v>220031</v>
@@ -23611,7 +23611,7 @@
         <v>21</v>
       </c>
       <c r="H442" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I442" s="5">
         <v>220032</v>
@@ -23661,7 +23661,7 @@
         <v>21</v>
       </c>
       <c r="H443" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I443" s="5">
         <v>220033</v>
@@ -23711,7 +23711,7 @@
         <v>21</v>
       </c>
       <c r="H444" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I444" s="5">
         <v>220034</v>
@@ -23761,7 +23761,7 @@
         <v>21</v>
       </c>
       <c r="H445" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I445" s="5">
         <v>220035</v>
@@ -23811,7 +23811,7 @@
         <v>21</v>
       </c>
       <c r="H446" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I446" s="5">
         <v>220036</v>
@@ -23861,7 +23861,7 @@
         <v>21</v>
       </c>
       <c r="H447" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I447" s="5">
         <v>220037</v>
@@ -23911,7 +23911,7 @@
         <v>21</v>
       </c>
       <c r="H448" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I448" s="5">
         <v>220038</v>
@@ -23961,7 +23961,7 @@
         <v>21</v>
       </c>
       <c r="H449" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I449" s="5">
         <v>220039</v>
@@ -24011,7 +24011,7 @@
         <v>21</v>
       </c>
       <c r="H450" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I450" s="5">
         <v>220040</v>
@@ -24061,7 +24061,7 @@
         <v>21</v>
       </c>
       <c r="H451" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I451" s="5">
         <v>220041</v>
@@ -24111,7 +24111,7 @@
         <v>27</v>
       </c>
       <c r="H452" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I452" s="5">
         <v>220042</v>
@@ -24161,7 +24161,7 @@
         <v>27</v>
       </c>
       <c r="H453" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I453" s="5">
         <v>220043</v>
@@ -24211,7 +24211,7 @@
         <v>27</v>
       </c>
       <c r="H454" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I454" s="5">
         <v>220044</v>
@@ -24261,7 +24261,7 @@
         <v>27</v>
       </c>
       <c r="H455" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I455" s="5">
         <v>220045</v>
@@ -24311,7 +24311,7 @@
         <v>27</v>
       </c>
       <c r="H456" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I456" s="5">
         <v>220046</v>
@@ -24361,7 +24361,7 @@
         <v>27</v>
       </c>
       <c r="H457" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I457" s="5">
         <v>220047</v>
@@ -24411,7 +24411,7 @@
         <v>21</v>
       </c>
       <c r="H458" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I458" s="5">
         <v>220168</v>
@@ -24461,7 +24461,7 @@
         <v>21</v>
       </c>
       <c r="H459" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I459" s="5">
         <v>220169</v>
@@ -24511,7 +24511,7 @@
         <v>21</v>
       </c>
       <c r="H460" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I460" s="5">
         <v>220170</v>
@@ -24561,7 +24561,7 @@
         <v>21</v>
       </c>
       <c r="H461" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I461" s="5">
         <v>220171</v>
@@ -24611,7 +24611,7 @@
         <v>21</v>
       </c>
       <c r="H462" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I462" s="5">
         <v>220172</v>
@@ -24661,7 +24661,7 @@
         <v>21</v>
       </c>
       <c r="H463" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I463" s="5">
         <v>220173</v>
@@ -24711,7 +24711,7 @@
         <v>27</v>
       </c>
       <c r="H464" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I464" s="5">
         <v>220120</v>
@@ -24761,7 +24761,7 @@
         <v>27</v>
       </c>
       <c r="H465" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I465" s="5">
         <v>220121</v>
@@ -24811,7 +24811,7 @@
         <v>27</v>
       </c>
       <c r="H466" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I466" s="5">
         <v>220122</v>
@@ -24861,7 +24861,7 @@
         <v>27</v>
       </c>
       <c r="H467" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I467" s="5">
         <v>220123</v>
@@ -24911,7 +24911,7 @@
         <v>27</v>
       </c>
       <c r="H468" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I468" s="5">
         <v>220124</v>
@@ -24961,7 +24961,7 @@
         <v>27</v>
       </c>
       <c r="H469" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I469" s="5">
         <v>220125</v>
@@ -25011,7 +25011,7 @@
         <v>21</v>
       </c>
       <c r="H470" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I470" s="5">
         <v>220174</v>
@@ -25061,7 +25061,7 @@
         <v>21</v>
       </c>
       <c r="H471" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I471" s="5">
         <v>220175</v>
@@ -25111,7 +25111,7 @@
         <v>21</v>
       </c>
       <c r="H472" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I472" s="5">
         <v>220176</v>
@@ -25161,7 +25161,7 @@
         <v>21</v>
       </c>
       <c r="H473" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I473" s="5">
         <v>220177</v>
@@ -25211,7 +25211,7 @@
         <v>21</v>
       </c>
       <c r="H474" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I474" s="5">
         <v>220178</v>
@@ -25261,7 +25261,7 @@
         <v>21</v>
       </c>
       <c r="H475" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I475" s="5">
         <v>220179</v>
@@ -25311,7 +25311,7 @@
         <v>27</v>
       </c>
       <c r="H476" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I476" s="5">
         <v>220126</v>
@@ -25361,7 +25361,7 @@
         <v>27</v>
       </c>
       <c r="H477" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I477" s="5">
         <v>220127</v>
@@ -25411,7 +25411,7 @@
         <v>27</v>
       </c>
       <c r="H478" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I478" s="5">
         <v>220128</v>
@@ -25461,7 +25461,7 @@
         <v>27</v>
       </c>
       <c r="H479" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I479" s="5">
         <v>220129</v>
@@ -25511,7 +25511,7 @@
         <v>27</v>
       </c>
       <c r="H480" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I480" s="5">
         <v>220130</v>
@@ -25561,7 +25561,7 @@
         <v>27</v>
       </c>
       <c r="H481" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I481" s="5">
         <v>220131</v>
@@ -25611,7 +25611,7 @@
         <v>27</v>
       </c>
       <c r="H482" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I482" s="5">
         <v>220132</v>
@@ -25661,7 +25661,7 @@
         <v>27</v>
       </c>
       <c r="H483" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I483" s="5">
         <v>220133</v>
@@ -25711,7 +25711,7 @@
         <v>27</v>
       </c>
       <c r="H484" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I484" s="5">
         <v>220134</v>
@@ -25761,7 +25761,7 @@
         <v>27</v>
       </c>
       <c r="H485" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I485" s="5">
         <v>220135</v>
@@ -25811,7 +25811,7 @@
         <v>27</v>
       </c>
       <c r="H486" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I486" s="5">
         <v>220136</v>
@@ -25861,7 +25861,7 @@
         <v>27</v>
       </c>
       <c r="H487" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I487" s="5">
         <v>220137</v>
@@ -25911,7 +25911,7 @@
         <v>21</v>
       </c>
       <c r="H488" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I488" s="5">
         <v>220180</v>
@@ -25961,7 +25961,7 @@
         <v>21</v>
       </c>
       <c r="H489" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I489" s="5">
         <v>220181</v>
@@ -26011,7 +26011,7 @@
         <v>21</v>
       </c>
       <c r="H490" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I490" s="5">
         <v>220182</v>
@@ -26061,7 +26061,7 @@
         <v>21</v>
       </c>
       <c r="H491" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I491" s="5">
         <v>220183</v>
@@ -26111,7 +26111,7 @@
         <v>21</v>
       </c>
       <c r="H492" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I492" s="5">
         <v>220184</v>
@@ -26161,7 +26161,7 @@
         <v>21</v>
       </c>
       <c r="H493" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I493" s="5">
         <v>220185</v>
@@ -26211,7 +26211,7 @@
         <v>21</v>
       </c>
       <c r="H494" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I494" s="5">
         <v>220186</v>
@@ -26261,7 +26261,7 @@
         <v>21</v>
       </c>
       <c r="H495" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I495" s="5">
         <v>220187</v>
@@ -26311,7 +26311,7 @@
         <v>21</v>
       </c>
       <c r="H496" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I496" s="5">
         <v>220188</v>
@@ -26361,7 +26361,7 @@
         <v>21</v>
       </c>
       <c r="H497" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I497" s="5">
         <v>220189</v>
@@ -26411,7 +26411,7 @@
         <v>21</v>
       </c>
       <c r="H498" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I498" s="5">
         <v>220190</v>
@@ -26461,7 +26461,7 @@
         <v>21</v>
       </c>
       <c r="H499" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I499" s="5">
         <v>220191</v>
@@ -26511,7 +26511,7 @@
         <v>27</v>
       </c>
       <c r="H500" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I500" s="5">
         <v>220138</v>
@@ -26561,7 +26561,7 @@
         <v>27</v>
       </c>
       <c r="H501" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I501" s="5">
         <v>220139</v>
@@ -26611,7 +26611,7 @@
         <v>27</v>
       </c>
       <c r="H502" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I502" s="5">
         <v>220140</v>
@@ -26661,7 +26661,7 @@
         <v>27</v>
       </c>
       <c r="H503" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I503" s="5">
         <v>220141</v>
@@ -26711,7 +26711,7 @@
         <v>27</v>
       </c>
       <c r="H504" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I504" s="5">
         <v>220142</v>
@@ -26761,7 +26761,7 @@
         <v>27</v>
       </c>
       <c r="H505" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I505" s="5">
         <v>220143</v>
@@ -26811,7 +26811,7 @@
         <v>21</v>
       </c>
       <c r="H506" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I506" s="5">
         <v>220264</v>
@@ -26861,7 +26861,7 @@
         <v>21</v>
       </c>
       <c r="H507" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I507" s="5">
         <v>220265</v>
@@ -26911,7 +26911,7 @@
         <v>21</v>
       </c>
       <c r="H508" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I508" s="5">
         <v>220266</v>
@@ -26961,7 +26961,7 @@
         <v>21</v>
       </c>
       <c r="H509" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I509" s="5">
         <v>220267</v>
@@ -27011,7 +27011,7 @@
         <v>21</v>
       </c>
       <c r="H510" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I510" s="5">
         <v>220268</v>
@@ -27061,7 +27061,7 @@
         <v>21</v>
       </c>
       <c r="H511" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I511" s="5">
         <v>220269</v>
@@ -27111,7 +27111,7 @@
         <v>27</v>
       </c>
       <c r="H512" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I512" s="5">
         <v>220216</v>
@@ -27161,7 +27161,7 @@
         <v>27</v>
       </c>
       <c r="H513" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I513" s="5">
         <v>220217</v>
@@ -27211,7 +27211,7 @@
         <v>27</v>
       </c>
       <c r="H514" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I514" s="5">
         <v>220218</v>
@@ -27261,7 +27261,7 @@
         <v>27</v>
       </c>
       <c r="H515" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I515" s="5">
         <v>220219</v>
@@ -27311,7 +27311,7 @@
         <v>27</v>
       </c>
       <c r="H516" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I516" s="5">
         <v>220220</v>
@@ -27361,7 +27361,7 @@
         <v>27</v>
       </c>
       <c r="H517" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I517" s="5">
         <v>220221</v>
@@ -27411,7 +27411,7 @@
         <v>21</v>
       </c>
       <c r="H518" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I518" s="5">
         <v>220270</v>
@@ -27461,7 +27461,7 @@
         <v>21</v>
       </c>
       <c r="H519" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I519" s="5">
         <v>220271</v>
@@ -27511,7 +27511,7 @@
         <v>21</v>
       </c>
       <c r="H520" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I520" s="5">
         <v>220272</v>
@@ -27561,7 +27561,7 @@
         <v>21</v>
       </c>
       <c r="H521" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I521" s="5">
         <v>220273</v>
@@ -27611,7 +27611,7 @@
         <v>21</v>
       </c>
       <c r="H522" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I522" s="5">
         <v>220274</v>
@@ -27661,7 +27661,7 @@
         <v>21</v>
       </c>
       <c r="H523" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I523" s="5">
         <v>220275</v>
@@ -27711,7 +27711,7 @@
         <v>27</v>
       </c>
       <c r="H524" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I524" s="5">
         <v>220222</v>
@@ -27761,7 +27761,7 @@
         <v>27</v>
       </c>
       <c r="H525" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I525" s="5">
         <v>220223</v>
@@ -27811,7 +27811,7 @@
         <v>27</v>
       </c>
       <c r="H526" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I526" s="5">
         <v>220224</v>
@@ -27861,7 +27861,7 @@
         <v>27</v>
       </c>
       <c r="H527" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I527" s="5">
         <v>220225</v>
@@ -27911,7 +27911,7 @@
         <v>27</v>
       </c>
       <c r="H528" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I528" s="5">
         <v>220226</v>
@@ -27961,7 +27961,7 @@
         <v>27</v>
       </c>
       <c r="H529" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I529" s="5">
         <v>220227</v>
@@ -28011,7 +28011,7 @@
         <v>27</v>
       </c>
       <c r="H530" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I530" s="5">
         <v>220228</v>
@@ -28061,7 +28061,7 @@
         <v>27</v>
       </c>
       <c r="H531" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I531" s="5">
         <v>220229</v>
@@ -28111,7 +28111,7 @@
         <v>27</v>
       </c>
       <c r="H532" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I532" s="5">
         <v>220230</v>
@@ -28161,7 +28161,7 @@
         <v>27</v>
       </c>
       <c r="H533" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I533" s="5">
         <v>220231</v>
@@ -28211,7 +28211,7 @@
         <v>27</v>
       </c>
       <c r="H534" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I534" s="5">
         <v>220232</v>
@@ -28261,7 +28261,7 @@
         <v>27</v>
       </c>
       <c r="H535" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I535" s="5">
         <v>220233</v>
@@ -28311,7 +28311,7 @@
         <v>21</v>
       </c>
       <c r="H536" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I536" s="5">
         <v>220276</v>
@@ -28361,7 +28361,7 @@
         <v>21</v>
       </c>
       <c r="H537" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I537" s="5">
         <v>220277</v>
@@ -28411,7 +28411,7 @@
         <v>21</v>
       </c>
       <c r="H538" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I538" s="5">
         <v>220278</v>
@@ -28461,7 +28461,7 @@
         <v>21</v>
       </c>
       <c r="H539" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I539" s="5">
         <v>220279</v>
@@ -28511,7 +28511,7 @@
         <v>21</v>
       </c>
       <c r="H540" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I540" s="5">
         <v>220280</v>
@@ -28561,7 +28561,7 @@
         <v>21</v>
       </c>
       <c r="H541" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I541" s="5">
         <v>220281</v>
@@ -28611,7 +28611,7 @@
         <v>21</v>
       </c>
       <c r="H542" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I542" s="5">
         <v>220282</v>
@@ -28661,7 +28661,7 @@
         <v>21</v>
       </c>
       <c r="H543" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I543" s="5">
         <v>220283</v>
@@ -28711,7 +28711,7 @@
         <v>21</v>
       </c>
       <c r="H544" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I544" s="5">
         <v>220284</v>
@@ -28761,7 +28761,7 @@
         <v>21</v>
       </c>
       <c r="H545" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I545" s="5">
         <v>220285</v>
@@ -28811,7 +28811,7 @@
         <v>21</v>
       </c>
       <c r="H546" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I546" s="5">
         <v>220286</v>
@@ -28861,7 +28861,7 @@
         <v>21</v>
       </c>
       <c r="H547" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I547" s="5">
         <v>220287</v>
@@ -28911,7 +28911,7 @@
         <v>27</v>
       </c>
       <c r="H548" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I548" s="5">
         <v>220234</v>
@@ -28961,7 +28961,7 @@
         <v>27</v>
       </c>
       <c r="H549" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I549" s="5">
         <v>220235</v>
@@ -29011,7 +29011,7 @@
         <v>27</v>
       </c>
       <c r="H550" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I550" s="5">
         <v>220236</v>
@@ -29061,7 +29061,7 @@
         <v>27</v>
       </c>
       <c r="H551" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I551" s="5">
         <v>220237</v>
@@ -29111,7 +29111,7 @@
         <v>27</v>
       </c>
       <c r="H552" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I552" s="5">
         <v>220238</v>
@@ -29161,7 +29161,7 @@
         <v>27</v>
       </c>
       <c r="H553" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I553" s="5">
         <v>220239</v>
@@ -29211,7 +29211,7 @@
         <v>27</v>
       </c>
       <c r="H554" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I554" s="5">
         <v>220312</v>
@@ -29261,7 +29261,7 @@
         <v>27</v>
       </c>
       <c r="H555" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I555" s="5">
         <v>220313</v>
@@ -29311,7 +29311,7 @@
         <v>27</v>
       </c>
       <c r="H556" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I556" s="5">
         <v>220314</v>
@@ -29361,7 +29361,7 @@
         <v>27</v>
       </c>
       <c r="H557" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I557" s="5">
         <v>220315</v>
@@ -29411,7 +29411,7 @@
         <v>27</v>
       </c>
       <c r="H558" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I558" s="5">
         <v>220316</v>
@@ -29461,7 +29461,7 @@
         <v>27</v>
       </c>
       <c r="H559" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I559" s="5">
         <v>220317</v>
@@ -29511,7 +29511,7 @@
         <v>27</v>
       </c>
       <c r="H560" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I560" s="5">
         <v>220318</v>
@@ -29561,7 +29561,7 @@
         <v>27</v>
       </c>
       <c r="H561" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I561" s="5">
         <v>220319</v>
@@ -29611,7 +29611,7 @@
         <v>27</v>
       </c>
       <c r="H562" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I562" s="5">
         <v>220320</v>
@@ -29661,7 +29661,7 @@
         <v>27</v>
       </c>
       <c r="H563" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I563" s="5">
         <v>220321</v>
@@ -29711,7 +29711,7 @@
         <v>27</v>
       </c>
       <c r="H564" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I564" s="5">
         <v>220322</v>
@@ -29761,7 +29761,7 @@
         <v>27</v>
       </c>
       <c r="H565" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I565" s="5">
         <v>220323</v>
@@ -29811,7 +29811,7 @@
         <v>27</v>
       </c>
       <c r="H566" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I566" s="5">
         <v>220324</v>
@@ -29861,7 +29861,7 @@
         <v>27</v>
       </c>
       <c r="H567" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I567" s="5">
         <v>220325</v>
@@ -29911,7 +29911,7 @@
         <v>27</v>
       </c>
       <c r="H568" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I568" s="5">
         <v>220326</v>
@@ -29961,7 +29961,7 @@
         <v>27</v>
       </c>
       <c r="H569" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I569" s="5">
         <v>220327</v>
@@ -30011,7 +30011,7 @@
         <v>27</v>
       </c>
       <c r="H570" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I570" s="5">
         <v>220328</v>
@@ -30061,7 +30061,7 @@
         <v>27</v>
       </c>
       <c r="H571" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I571" s="5">
         <v>220329</v>
@@ -30111,7 +30111,7 @@
         <v>27</v>
       </c>
       <c r="H572" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I572" s="5">
         <v>220330</v>
@@ -30161,7 +30161,7 @@
         <v>27</v>
       </c>
       <c r="H573" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I573" s="5">
         <v>220331</v>
@@ -30211,7 +30211,7 @@
         <v>27</v>
       </c>
       <c r="H574" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I574" s="5">
         <v>220332</v>
@@ -30261,7 +30261,7 @@
         <v>27</v>
       </c>
       <c r="H575" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I575" s="5">
         <v>220333</v>
@@ -30311,7 +30311,7 @@
         <v>27</v>
       </c>
       <c r="H576" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I576" s="5">
         <v>220334</v>
@@ -30361,7 +30361,7 @@
         <v>27</v>
       </c>
       <c r="H577" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I577" s="5">
         <v>220335</v>
@@ -30409,7 +30409,7 @@
         <v>21</v>
       </c>
       <c r="H578" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J578" s="8">
         <v>0</v>
@@ -30441,7 +30441,7 @@
         <v>21</v>
       </c>
       <c r="H579" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J579" s="8">
         <v>0</v>
@@ -30473,7 +30473,7 @@
         <v>21</v>
       </c>
       <c r="H580" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J580" s="8">
         <v>0</v>
@@ -30505,7 +30505,7 @@
         <v>21</v>
       </c>
       <c r="H581" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J581" s="8">
         <v>0</v>
@@ -30537,7 +30537,7 @@
         <v>21</v>
       </c>
       <c r="H582" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J582" s="8">
         <v>0</v>
@@ -30569,7 +30569,7 @@
         <v>21</v>
       </c>
       <c r="H583" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J583" s="8">
         <v>0</v>
@@ -30601,7 +30601,7 @@
         <v>27</v>
       </c>
       <c r="H584" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J584" s="8">
         <v>0</v>
@@ -30633,7 +30633,7 @@
         <v>27</v>
       </c>
       <c r="H585" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J585" s="8">
         <v>0</v>
@@ -30665,7 +30665,7 @@
         <v>27</v>
       </c>
       <c r="H586" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J586" s="8">
         <v>0</v>
@@ -30697,7 +30697,7 @@
         <v>27</v>
       </c>
       <c r="H587" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J587" s="8">
         <v>0</v>
@@ -30729,7 +30729,7 @@
         <v>27</v>
       </c>
       <c r="H588" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J588" s="8">
         <v>0</v>
@@ -30761,7 +30761,7 @@
         <v>27</v>
       </c>
       <c r="H589" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J589" s="8">
         <v>0</v>
@@ -30793,7 +30793,7 @@
         <v>21</v>
       </c>
       <c r="H590" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J590" s="8">
         <v>0</v>
@@ -30825,7 +30825,7 @@
         <v>21</v>
       </c>
       <c r="H591" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J591" s="8">
         <v>0</v>
@@ -30857,7 +30857,7 @@
         <v>21</v>
       </c>
       <c r="H592" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J592" s="8">
         <v>0</v>
@@ -30889,7 +30889,7 @@
         <v>21</v>
       </c>
       <c r="H593" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J593" s="8">
         <v>0</v>
@@ -30921,7 +30921,7 @@
         <v>21</v>
       </c>
       <c r="H594" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J594" s="8">
         <v>0</v>
@@ -30953,7 +30953,7 @@
         <v>21</v>
       </c>
       <c r="H595" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J595" s="8">
         <v>0</v>
@@ -30985,7 +30985,7 @@
         <v>27</v>
       </c>
       <c r="H596" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J596" s="8">
         <v>0</v>
@@ -31017,7 +31017,7 @@
         <v>27</v>
       </c>
       <c r="H597" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J597" s="8">
         <v>0</v>
@@ -31049,7 +31049,7 @@
         <v>27</v>
       </c>
       <c r="H598" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J598" s="8">
         <v>0</v>
@@ -31081,7 +31081,7 @@
         <v>27</v>
       </c>
       <c r="H599" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J599" s="8">
         <v>0</v>
@@ -31113,7 +31113,7 @@
         <v>27</v>
       </c>
       <c r="H600" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J600" s="8">
         <v>0</v>
@@ -31145,7 +31145,7 @@
         <v>27</v>
       </c>
       <c r="H601" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J601" s="8">
         <v>0</v>
@@ -31177,7 +31177,7 @@
         <v>27</v>
       </c>
       <c r="H602" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J602" s="8">
         <v>0</v>
@@ -31209,7 +31209,7 @@
         <v>27</v>
       </c>
       <c r="H603" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J603" s="8">
         <v>0</v>
@@ -31241,7 +31241,7 @@
         <v>27</v>
       </c>
       <c r="H604" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J604" s="8">
         <v>0</v>
@@ -31273,7 +31273,7 @@
         <v>27</v>
       </c>
       <c r="H605" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J605" s="8">
         <v>0</v>
@@ -31305,7 +31305,7 @@
         <v>27</v>
       </c>
       <c r="H606" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J606" s="8">
         <v>0</v>
@@ -31337,7 +31337,7 @@
         <v>27</v>
       </c>
       <c r="H607" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J607" s="8">
         <v>0</v>
@@ -31369,7 +31369,7 @@
         <v>21</v>
       </c>
       <c r="H608" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J608" s="8">
         <v>0</v>
@@ -31401,7 +31401,7 @@
         <v>21</v>
       </c>
       <c r="H609" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J609" s="8">
         <v>0</v>
@@ -31433,7 +31433,7 @@
         <v>21</v>
       </c>
       <c r="H610" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J610" s="8">
         <v>0</v>
@@ -31465,7 +31465,7 @@
         <v>21</v>
       </c>
       <c r="H611" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J611" s="8">
         <v>0</v>
@@ -31497,7 +31497,7 @@
         <v>21</v>
       </c>
       <c r="H612" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J612" s="8">
         <v>0</v>
@@ -31529,7 +31529,7 @@
         <v>21</v>
       </c>
       <c r="H613" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J613" s="8">
         <v>0</v>
@@ -31561,7 +31561,7 @@
         <v>21</v>
       </c>
       <c r="H614" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J614" s="8">
         <v>0</v>
@@ -31593,7 +31593,7 @@
         <v>21</v>
       </c>
       <c r="H615" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J615" s="8">
         <v>0</v>
@@ -31625,7 +31625,7 @@
         <v>21</v>
       </c>
       <c r="H616" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J616" s="8">
         <v>0</v>
@@ -31657,7 +31657,7 @@
         <v>21</v>
       </c>
       <c r="H617" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J617" s="8">
         <v>0</v>
@@ -31689,7 +31689,7 @@
         <v>21</v>
       </c>
       <c r="H618" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J618" s="8">
         <v>0</v>
@@ -31721,7 +31721,7 @@
         <v>21</v>
       </c>
       <c r="H619" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J619" s="8">
         <v>0</v>
@@ -31753,7 +31753,7 @@
         <v>27</v>
       </c>
       <c r="H620" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J620" s="8">
         <v>0</v>
@@ -31785,7 +31785,7 @@
         <v>27</v>
       </c>
       <c r="H621" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J621" s="8">
         <v>0</v>
@@ -31817,7 +31817,7 @@
         <v>27</v>
       </c>
       <c r="H622" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J622" s="8">
         <v>0</v>
@@ -31849,7 +31849,7 @@
         <v>27</v>
       </c>
       <c r="H623" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J623" s="8">
         <v>0</v>
@@ -31881,7 +31881,7 @@
         <v>27</v>
       </c>
       <c r="H624" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J624" s="8">
         <v>0</v>
@@ -31913,7 +31913,7 @@
         <v>27</v>
       </c>
       <c r="H625" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J625" s="8">
         <v>0</v>
@@ -31945,7 +31945,7 @@
         <v>21</v>
       </c>
       <c r="H626" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J626" s="8">
         <v>0</v>
@@ -31977,7 +31977,7 @@
         <v>21</v>
       </c>
       <c r="H627" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J627" s="8">
         <v>0</v>
@@ -32009,7 +32009,7 @@
         <v>21</v>
       </c>
       <c r="H628" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J628" s="8">
         <v>0</v>
@@ -32041,7 +32041,7 @@
         <v>21</v>
       </c>
       <c r="H629" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J629" s="8">
         <v>0</v>
@@ -32073,7 +32073,7 @@
         <v>21</v>
       </c>
       <c r="H630" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J630" s="8">
         <v>0</v>
@@ -32105,7 +32105,7 @@
         <v>21</v>
       </c>
       <c r="H631" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J631" s="8">
         <v>0</v>
@@ -32137,7 +32137,7 @@
         <v>27</v>
       </c>
       <c r="H632" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J632" s="8">
         <v>0</v>
@@ -32169,7 +32169,7 @@
         <v>27</v>
       </c>
       <c r="H633" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J633" s="8">
         <v>0</v>
@@ -32201,7 +32201,7 @@
         <v>27</v>
       </c>
       <c r="H634" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J634" s="8">
         <v>0</v>
@@ -32233,7 +32233,7 @@
         <v>27</v>
       </c>
       <c r="H635" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J635" s="8">
         <v>0</v>
@@ -32265,7 +32265,7 @@
         <v>27</v>
       </c>
       <c r="H636" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J636" s="8">
         <v>0</v>
@@ -32297,7 +32297,7 @@
         <v>27</v>
       </c>
       <c r="H637" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J637" s="8">
         <v>0</v>
@@ -32329,7 +32329,7 @@
         <v>21</v>
       </c>
       <c r="H638" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J638" s="8">
         <v>0</v>
@@ -32361,7 +32361,7 @@
         <v>21</v>
       </c>
       <c r="H639" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J639" s="8">
         <v>0</v>
@@ -32393,7 +32393,7 @@
         <v>21</v>
       </c>
       <c r="H640" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J640" s="8">
         <v>0</v>
@@ -32425,7 +32425,7 @@
         <v>21</v>
       </c>
       <c r="H641" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J641" s="8">
         <v>0</v>
@@ -32457,7 +32457,7 @@
         <v>21</v>
       </c>
       <c r="H642" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J642" s="8">
         <v>0</v>
@@ -32489,7 +32489,7 @@
         <v>21</v>
       </c>
       <c r="H643" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J643" s="8">
         <v>0</v>
@@ -32521,7 +32521,7 @@
         <v>27</v>
       </c>
       <c r="H644" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J644" s="8">
         <v>0</v>
@@ -32553,7 +32553,7 @@
         <v>27</v>
       </c>
       <c r="H645" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J645" s="8">
         <v>0</v>
@@ -32585,7 +32585,7 @@
         <v>27</v>
       </c>
       <c r="H646" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J646" s="8">
         <v>0</v>
@@ -32617,7 +32617,7 @@
         <v>27</v>
       </c>
       <c r="H647" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J647" s="8">
         <v>0</v>
@@ -32649,7 +32649,7 @@
         <v>27</v>
       </c>
       <c r="H648" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J648" s="8">
         <v>0</v>
@@ -32681,7 +32681,7 @@
         <v>27</v>
       </c>
       <c r="H649" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J649" s="8">
         <v>0</v>
@@ -32713,7 +32713,7 @@
         <v>27</v>
       </c>
       <c r="H650" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J650" s="8">
         <v>0</v>
@@ -32745,7 +32745,7 @@
         <v>27</v>
       </c>
       <c r="H651" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J651" s="8">
         <v>0</v>
@@ -32777,7 +32777,7 @@
         <v>27</v>
       </c>
       <c r="H652" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J652" s="8">
         <v>0</v>
@@ -32809,7 +32809,7 @@
         <v>27</v>
       </c>
       <c r="H653" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J653" s="8">
         <v>0</v>
@@ -32841,7 +32841,7 @@
         <v>27</v>
       </c>
       <c r="H654" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J654" s="8">
         <v>0</v>
@@ -32873,7 +32873,7 @@
         <v>27</v>
       </c>
       <c r="H655" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J655" s="8">
         <v>0</v>
@@ -32905,7 +32905,7 @@
         <v>21</v>
       </c>
       <c r="H656" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J656" s="8">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>21</v>
       </c>
       <c r="H657" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J657" s="8">
         <v>0</v>
@@ -32969,7 +32969,7 @@
         <v>21</v>
       </c>
       <c r="H658" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J658" s="8">
         <v>0</v>
@@ -33001,7 +33001,7 @@
         <v>21</v>
       </c>
       <c r="H659" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J659" s="8">
         <v>0</v>
@@ -33033,7 +33033,7 @@
         <v>21</v>
       </c>
       <c r="H660" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J660" s="8">
         <v>0</v>
@@ -33065,7 +33065,7 @@
         <v>21</v>
       </c>
       <c r="H661" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J661" s="8">
         <v>0</v>
@@ -33097,7 +33097,7 @@
         <v>21</v>
       </c>
       <c r="H662" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J662" s="8">
         <v>0</v>
@@ -33129,7 +33129,7 @@
         <v>21</v>
       </c>
       <c r="H663" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J663" s="8">
         <v>0</v>
@@ -33161,7 +33161,7 @@
         <v>21</v>
       </c>
       <c r="H664" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J664" s="8">
         <v>0</v>
@@ -33193,7 +33193,7 @@
         <v>21</v>
       </c>
       <c r="H665" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J665" s="8">
         <v>0</v>
@@ -33225,7 +33225,7 @@
         <v>21</v>
       </c>
       <c r="H666" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J666" s="8">
         <v>0</v>
@@ -33257,7 +33257,7 @@
         <v>21</v>
       </c>
       <c r="H667" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J667" s="8">
         <v>0</v>
@@ -33289,7 +33289,7 @@
         <v>27</v>
       </c>
       <c r="H668" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J668" s="8">
         <v>0</v>
@@ -33321,7 +33321,7 @@
         <v>27</v>
       </c>
       <c r="H669" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J669" s="8">
         <v>0</v>
@@ -33353,7 +33353,7 @@
         <v>27</v>
       </c>
       <c r="H670" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J670" s="8">
         <v>0</v>
@@ -33385,7 +33385,7 @@
         <v>27</v>
       </c>
       <c r="H671" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J671" s="8">
         <v>0</v>
@@ -33417,7 +33417,7 @@
         <v>27</v>
       </c>
       <c r="H672" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J672" s="8">
         <v>0</v>
@@ -33449,7 +33449,7 @@
         <v>27</v>
       </c>
       <c r="H673" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J673" s="8">
         <v>0</v>
@@ -33481,7 +33481,7 @@
         <v>21</v>
       </c>
       <c r="H674" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J674" s="8">
         <v>0</v>
@@ -33513,7 +33513,7 @@
         <v>21</v>
       </c>
       <c r="H675" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J675" s="8">
         <v>0</v>
@@ -33545,7 +33545,7 @@
         <v>21</v>
       </c>
       <c r="H676" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J676" s="8">
         <v>0</v>
@@ -33577,7 +33577,7 @@
         <v>21</v>
       </c>
       <c r="H677" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J677" s="8">
         <v>0</v>
@@ -33609,7 +33609,7 @@
         <v>21</v>
       </c>
       <c r="H678" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J678" s="8">
         <v>0</v>
@@ -33641,7 +33641,7 @@
         <v>21</v>
       </c>
       <c r="H679" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J679" s="8">
         <v>0</v>
@@ -33673,7 +33673,7 @@
         <v>27</v>
       </c>
       <c r="H680" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J680" s="8">
         <v>0</v>
@@ -33705,7 +33705,7 @@
         <v>27</v>
       </c>
       <c r="H681" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J681" s="8">
         <v>0</v>
@@ -33737,7 +33737,7 @@
         <v>27</v>
       </c>
       <c r="H682" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J682" s="8">
         <v>0</v>
@@ -33769,7 +33769,7 @@
         <v>27</v>
       </c>
       <c r="H683" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J683" s="8">
         <v>0</v>
@@ -33801,7 +33801,7 @@
         <v>27</v>
       </c>
       <c r="H684" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J684" s="8">
         <v>0</v>
@@ -33833,7 +33833,7 @@
         <v>27</v>
       </c>
       <c r="H685" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J685" s="8">
         <v>0</v>
@@ -33865,7 +33865,7 @@
         <v>21</v>
       </c>
       <c r="H686" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J686" s="8">
         <v>0</v>
@@ -33897,7 +33897,7 @@
         <v>21</v>
       </c>
       <c r="H687" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J687" s="8">
         <v>0</v>
@@ -33929,7 +33929,7 @@
         <v>21</v>
       </c>
       <c r="H688" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J688" s="8">
         <v>0</v>
@@ -33961,7 +33961,7 @@
         <v>21</v>
       </c>
       <c r="H689" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J689" s="8">
         <v>0</v>
@@ -33993,7 +33993,7 @@
         <v>21</v>
       </c>
       <c r="H690" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J690" s="8">
         <v>0</v>
@@ -34025,7 +34025,7 @@
         <v>21</v>
       </c>
       <c r="H691" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J691" s="8">
         <v>0</v>
@@ -34057,7 +34057,7 @@
         <v>27</v>
       </c>
       <c r="H692" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J692" s="8">
         <v>0</v>
@@ -34089,7 +34089,7 @@
         <v>27</v>
       </c>
       <c r="H693" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J693" s="8">
         <v>0</v>
@@ -34121,7 +34121,7 @@
         <v>27</v>
       </c>
       <c r="H694" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J694" s="8">
         <v>0</v>
@@ -34153,7 +34153,7 @@
         <v>27</v>
       </c>
       <c r="H695" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J695" s="8">
         <v>0</v>
@@ -34185,7 +34185,7 @@
         <v>27</v>
       </c>
       <c r="H696" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J696" s="8">
         <v>0</v>
@@ -34217,7 +34217,7 @@
         <v>27</v>
       </c>
       <c r="H697" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J697" s="8">
         <v>0</v>
@@ -34249,7 +34249,7 @@
         <v>27</v>
       </c>
       <c r="H698" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J698" s="8">
         <v>0</v>
@@ -34281,7 +34281,7 @@
         <v>27</v>
       </c>
       <c r="H699" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J699" s="8">
         <v>0</v>
@@ -34313,7 +34313,7 @@
         <v>27</v>
       </c>
       <c r="H700" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J700" s="8">
         <v>0</v>
@@ -34345,7 +34345,7 @@
         <v>27</v>
       </c>
       <c r="H701" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J701" s="8">
         <v>0</v>
@@ -34377,7 +34377,7 @@
         <v>27</v>
       </c>
       <c r="H702" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J702" s="8">
         <v>0</v>
@@ -34409,7 +34409,7 @@
         <v>27</v>
       </c>
       <c r="H703" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J703" s="8">
         <v>0</v>
@@ -34441,7 +34441,7 @@
         <v>21</v>
       </c>
       <c r="H704" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J704" s="8">
         <v>0</v>
@@ -34473,7 +34473,7 @@
         <v>21</v>
       </c>
       <c r="H705" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J705" s="8">
         <v>0</v>
@@ -34505,7 +34505,7 @@
         <v>21</v>
       </c>
       <c r="H706" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J706" s="8">
         <v>0</v>
@@ -34537,7 +34537,7 @@
         <v>21</v>
       </c>
       <c r="H707" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J707" s="8">
         <v>0</v>
@@ -34569,7 +34569,7 @@
         <v>21</v>
       </c>
       <c r="H708" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J708" s="8">
         <v>0</v>
@@ -34601,7 +34601,7 @@
         <v>21</v>
       </c>
       <c r="H709" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J709" s="8">
         <v>0</v>
@@ -34633,7 +34633,7 @@
         <v>21</v>
       </c>
       <c r="H710" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J710" s="8">
         <v>0</v>
@@ -34665,7 +34665,7 @@
         <v>21</v>
       </c>
       <c r="H711" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J711" s="8">
         <v>0</v>
@@ -34697,7 +34697,7 @@
         <v>21</v>
       </c>
       <c r="H712" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J712" s="8">
         <v>0</v>
@@ -34729,7 +34729,7 @@
         <v>21</v>
       </c>
       <c r="H713" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J713" s="8">
         <v>0</v>
@@ -34761,7 +34761,7 @@
         <v>21</v>
       </c>
       <c r="H714" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J714" s="8">
         <v>0</v>
@@ -34793,7 +34793,7 @@
         <v>21</v>
       </c>
       <c r="H715" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J715" s="8">
         <v>0</v>
@@ -34825,7 +34825,7 @@
         <v>27</v>
       </c>
       <c r="H716" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J716" s="8">
         <v>0</v>
@@ -34857,7 +34857,7 @@
         <v>27</v>
       </c>
       <c r="H717" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J717" s="8">
         <v>0</v>
@@ -34889,7 +34889,7 @@
         <v>27</v>
       </c>
       <c r="H718" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J718" s="8">
         <v>0</v>
@@ -34921,7 +34921,7 @@
         <v>27</v>
       </c>
       <c r="H719" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J719" s="8">
         <v>0</v>
@@ -34953,7 +34953,7 @@
         <v>27</v>
       </c>
       <c r="H720" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J720" s="8">
         <v>0</v>
@@ -34985,7 +34985,7 @@
         <v>27</v>
       </c>
       <c r="H721" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J721" s="8">
         <v>0</v>
@@ -35017,7 +35017,7 @@
         <v>21</v>
       </c>
       <c r="H722" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J722" s="8">
         <v>0</v>
@@ -35049,7 +35049,7 @@
         <v>21</v>
       </c>
       <c r="H723" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J723" s="8">
         <v>0</v>
@@ -35081,7 +35081,7 @@
         <v>21</v>
       </c>
       <c r="H724" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J724" s="8">
         <v>0</v>
@@ -35113,7 +35113,7 @@
         <v>21</v>
       </c>
       <c r="H725" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J725" s="8">
         <v>0</v>
@@ -35145,7 +35145,7 @@
         <v>21</v>
       </c>
       <c r="H726" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J726" s="8">
         <v>0</v>
@@ -35177,7 +35177,7 @@
         <v>21</v>
       </c>
       <c r="H727" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J727" s="8">
         <v>0</v>
@@ -35209,7 +35209,7 @@
         <v>27</v>
       </c>
       <c r="H728" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J728" s="8">
         <v>0</v>
@@ -35241,7 +35241,7 @@
         <v>27</v>
       </c>
       <c r="H729" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J729" s="8">
         <v>0</v>
@@ -35273,7 +35273,7 @@
         <v>27</v>
       </c>
       <c r="H730" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J730" s="8">
         <v>0</v>
@@ -35305,7 +35305,7 @@
         <v>27</v>
       </c>
       <c r="H731" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J731" s="8">
         <v>0</v>
@@ -35337,7 +35337,7 @@
         <v>27</v>
       </c>
       <c r="H732" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J732" s="8">
         <v>0</v>
@@ -35369,7 +35369,7 @@
         <v>27</v>
       </c>
       <c r="H733" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J733" s="8">
         <v>0</v>
@@ -35401,7 +35401,7 @@
         <v>21</v>
       </c>
       <c r="H734" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J734" s="8">
         <v>0</v>
@@ -35433,7 +35433,7 @@
         <v>21</v>
       </c>
       <c r="H735" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J735" s="8">
         <v>0</v>
@@ -35465,7 +35465,7 @@
         <v>21</v>
       </c>
       <c r="H736" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J736" s="8">
         <v>0</v>
@@ -35497,7 +35497,7 @@
         <v>21</v>
       </c>
       <c r="H737" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J737" s="8">
         <v>0</v>
@@ -35529,7 +35529,7 @@
         <v>21</v>
       </c>
       <c r="H738" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J738" s="8">
         <v>0</v>
@@ -35561,7 +35561,7 @@
         <v>21</v>
       </c>
       <c r="H739" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J739" s="8">
         <v>0</v>
@@ -35593,7 +35593,7 @@
         <v>27</v>
       </c>
       <c r="H740" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J740" s="8">
         <v>0</v>
@@ -35625,7 +35625,7 @@
         <v>27</v>
       </c>
       <c r="H741" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J741" s="8">
         <v>0</v>
@@ -35657,7 +35657,7 @@
         <v>27</v>
       </c>
       <c r="H742" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J742" s="8">
         <v>0</v>
@@ -35689,7 +35689,7 @@
         <v>27</v>
       </c>
       <c r="H743" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J743" s="8">
         <v>0</v>
@@ -35721,7 +35721,7 @@
         <v>27</v>
       </c>
       <c r="H744" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J744" s="8">
         <v>0</v>
@@ -35753,7 +35753,7 @@
         <v>27</v>
       </c>
       <c r="H745" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J745" s="8">
         <v>0</v>
@@ -35785,7 +35785,7 @@
         <v>27</v>
       </c>
       <c r="H746" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J746" s="8">
         <v>0</v>
@@ -35817,7 +35817,7 @@
         <v>27</v>
       </c>
       <c r="H747" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J747" s="8">
         <v>0</v>
@@ -35849,7 +35849,7 @@
         <v>27</v>
       </c>
       <c r="H748" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J748" s="8">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>27</v>
       </c>
       <c r="H749" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J749" s="8">
         <v>0</v>
@@ -35913,7 +35913,7 @@
         <v>27</v>
       </c>
       <c r="H750" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J750" s="8">
         <v>0</v>
@@ -35945,7 +35945,7 @@
         <v>27</v>
       </c>
       <c r="H751" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J751" s="8">
         <v>0</v>
@@ -35977,7 +35977,7 @@
         <v>21</v>
       </c>
       <c r="H752" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J752" s="8">
         <v>0</v>
@@ -36009,7 +36009,7 @@
         <v>21</v>
       </c>
       <c r="H753" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J753" s="8">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>21</v>
       </c>
       <c r="H754" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J754" s="8">
         <v>0</v>
@@ -36073,7 +36073,7 @@
         <v>21</v>
       </c>
       <c r="H755" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J755" s="8">
         <v>0</v>
@@ -36105,7 +36105,7 @@
         <v>21</v>
       </c>
       <c r="H756" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J756" s="8">
         <v>0</v>
@@ -36137,7 +36137,7 @@
         <v>21</v>
       </c>
       <c r="H757" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J757" s="8">
         <v>0</v>
@@ -36169,7 +36169,7 @@
         <v>21</v>
       </c>
       <c r="H758" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J758" s="8">
         <v>0</v>
@@ -36201,7 +36201,7 @@
         <v>21</v>
       </c>
       <c r="H759" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J759" s="8">
         <v>0</v>
@@ -36233,7 +36233,7 @@
         <v>21</v>
       </c>
       <c r="H760" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J760" s="8">
         <v>0</v>
@@ -36265,7 +36265,7 @@
         <v>21</v>
       </c>
       <c r="H761" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J761" s="8">
         <v>0</v>
@@ -36297,7 +36297,7 @@
         <v>21</v>
       </c>
       <c r="H762" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J762" s="8">
         <v>0</v>
@@ -36329,7 +36329,7 @@
         <v>21</v>
       </c>
       <c r="H763" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J763" s="8">
         <v>0</v>
@@ -36361,7 +36361,7 @@
         <v>27</v>
       </c>
       <c r="H764" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J764" s="8">
         <v>0</v>
@@ -36393,7 +36393,7 @@
         <v>27</v>
       </c>
       <c r="H765" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J765" s="8">
         <v>0</v>
@@ -36425,7 +36425,7 @@
         <v>27</v>
       </c>
       <c r="H766" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J766" s="8">
         <v>0</v>
@@ -36457,7 +36457,7 @@
         <v>27</v>
       </c>
       <c r="H767" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J767" s="8">
         <v>0</v>
@@ -36489,7 +36489,7 @@
         <v>27</v>
       </c>
       <c r="H768" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J768" s="8">
         <v>0</v>
@@ -36521,7 +36521,7 @@
         <v>27</v>
       </c>
       <c r="H769" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J769" s="8">
         <v>0</v>
@@ -36553,7 +36553,7 @@
         <v>27</v>
       </c>
       <c r="H770" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J770" s="8">
         <v>0</v>
@@ -36585,7 +36585,7 @@
         <v>27</v>
       </c>
       <c r="H771" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J771" s="8">
         <v>0</v>
@@ -36617,7 +36617,7 @@
         <v>27</v>
       </c>
       <c r="H772" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J772" s="8">
         <v>0</v>
@@ -36649,7 +36649,7 @@
         <v>27</v>
       </c>
       <c r="H773" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J773" s="8">
         <v>0</v>
@@ -36681,7 +36681,7 @@
         <v>27</v>
       </c>
       <c r="H774" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J774" s="8">
         <v>0</v>
@@ -36713,7 +36713,7 @@
         <v>27</v>
       </c>
       <c r="H775" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J775" s="8">
         <v>0</v>
@@ -36745,7 +36745,7 @@
         <v>27</v>
       </c>
       <c r="H776" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J776" s="8">
         <v>0</v>
@@ -36777,7 +36777,7 @@
         <v>27</v>
       </c>
       <c r="H777" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J777" s="8">
         <v>0</v>
@@ -36809,7 +36809,7 @@
         <v>27</v>
       </c>
       <c r="H778" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J778" s="8">
         <v>0</v>
@@ -36841,7 +36841,7 @@
         <v>27</v>
       </c>
       <c r="H779" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J779" s="8">
         <v>0</v>
@@ -36873,7 +36873,7 @@
         <v>27</v>
       </c>
       <c r="H780" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J780" s="8">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>27</v>
       </c>
       <c r="H781" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J781" s="8">
         <v>0</v>
@@ -36937,7 +36937,7 @@
         <v>27</v>
       </c>
       <c r="H782" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J782" s="8">
         <v>0</v>
@@ -36969,7 +36969,7 @@
         <v>27</v>
       </c>
       <c r="H783" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J783" s="8">
         <v>0</v>
@@ -37001,7 +37001,7 @@
         <v>27</v>
       </c>
       <c r="H784" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J784" s="8">
         <v>0</v>
@@ -37033,7 +37033,7 @@
         <v>27</v>
       </c>
       <c r="H785" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J785" s="8">
         <v>0</v>
@@ -37065,7 +37065,7 @@
         <v>27</v>
       </c>
       <c r="H786" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J786" s="8">
         <v>0</v>
@@ -37097,7 +37097,7 @@
         <v>27</v>
       </c>
       <c r="H787" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J787" s="8">
         <v>0</v>
@@ -37129,7 +37129,7 @@
         <v>27</v>
       </c>
       <c r="H788" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J788" s="8">
         <v>0</v>
@@ -37161,7 +37161,7 @@
         <v>27</v>
       </c>
       <c r="H789" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J789" s="8">
         <v>0</v>
@@ -37193,7 +37193,7 @@
         <v>27</v>
       </c>
       <c r="H790" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J790" s="8">
         <v>0</v>
@@ -37225,7 +37225,7 @@
         <v>27</v>
       </c>
       <c r="H791" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J791" s="8">
         <v>0</v>
@@ -37257,7 +37257,7 @@
         <v>27</v>
       </c>
       <c r="H792" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J792" s="8">
         <v>0</v>
@@ -37289,7 +37289,7 @@
         <v>27</v>
       </c>
       <c r="H793" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J793" s="8">
         <v>0</v>
@@ -37321,7 +37321,7 @@
         <v>21</v>
       </c>
       <c r="H794" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J794" s="8">
         <v>0</v>
@@ -37348,7 +37348,7 @@
         <v>21</v>
       </c>
       <c r="H795" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J795" s="8">
         <v>0</v>
@@ -37375,7 +37375,7 @@
         <v>21</v>
       </c>
       <c r="H796" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J796" s="8">
         <v>0</v>
@@ -37402,7 +37402,7 @@
         <v>21</v>
       </c>
       <c r="H797" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J797" s="8">
         <v>0</v>
@@ -37429,7 +37429,7 @@
         <v>21</v>
       </c>
       <c r="H798" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J798" s="8">
         <v>0</v>
@@ -37456,7 +37456,7 @@
         <v>21</v>
       </c>
       <c r="H799" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J799" s="8">
         <v>0</v>
@@ -37483,7 +37483,7 @@
         <v>27</v>
       </c>
       <c r="H800" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J800" s="8">
         <v>0</v>
@@ -37510,7 +37510,7 @@
         <v>27</v>
       </c>
       <c r="H801" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J801" s="8">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>27</v>
       </c>
       <c r="H802" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J802" s="8">
         <v>0</v>
@@ -37564,7 +37564,7 @@
         <v>27</v>
       </c>
       <c r="H803" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J803" s="8">
         <v>0</v>
@@ -37591,7 +37591,7 @@
         <v>27</v>
       </c>
       <c r="H804" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J804" s="8">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>27</v>
       </c>
       <c r="H805" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J805" s="8">
         <v>0</v>
@@ -37645,7 +37645,7 @@
         <v>21</v>
       </c>
       <c r="H806" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J806" s="8">
         <v>0</v>
@@ -37672,7 +37672,7 @@
         <v>21</v>
       </c>
       <c r="H807" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J807" s="8">
         <v>0</v>
@@ -37699,7 +37699,7 @@
         <v>21</v>
       </c>
       <c r="H808" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J808" s="8">
         <v>0</v>
@@ -37726,7 +37726,7 @@
         <v>21</v>
       </c>
       <c r="H809" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J809" s="8">
         <v>0</v>
@@ -37753,7 +37753,7 @@
         <v>21</v>
       </c>
       <c r="H810" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J810" s="8">
         <v>0</v>
@@ -37780,7 +37780,7 @@
         <v>21</v>
       </c>
       <c r="H811" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J811" s="8">
         <v>0</v>
@@ -37807,7 +37807,7 @@
         <v>27</v>
       </c>
       <c r="H812" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J812" s="8">
         <v>0</v>
@@ -37834,7 +37834,7 @@
         <v>27</v>
       </c>
       <c r="H813" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J813" s="8">
         <v>0</v>
@@ -37861,7 +37861,7 @@
         <v>27</v>
       </c>
       <c r="H814" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J814" s="8">
         <v>0</v>
@@ -37888,7 +37888,7 @@
         <v>27</v>
       </c>
       <c r="H815" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J815" s="8">
         <v>0</v>
@@ -37915,7 +37915,7 @@
         <v>27</v>
       </c>
       <c r="H816" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J816" s="8">
         <v>0</v>
@@ -37942,7 +37942,7 @@
         <v>27</v>
       </c>
       <c r="H817" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J817" s="8">
         <v>0</v>
@@ -37969,7 +37969,7 @@
         <v>27</v>
       </c>
       <c r="H818" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J818" s="8">
         <v>0</v>
@@ -37996,7 +37996,7 @@
         <v>27</v>
       </c>
       <c r="H819" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J819" s="8">
         <v>0</v>
@@ -38023,7 +38023,7 @@
         <v>27</v>
       </c>
       <c r="H820" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J820" s="8">
         <v>0</v>
@@ -38050,7 +38050,7 @@
         <v>27</v>
       </c>
       <c r="H821" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J821" s="8">
         <v>0</v>
@@ -38077,7 +38077,7 @@
         <v>27</v>
       </c>
       <c r="H822" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J822" s="8">
         <v>0</v>
@@ -38104,7 +38104,7 @@
         <v>27</v>
       </c>
       <c r="H823" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J823" s="8">
         <v>0</v>
@@ -38131,7 +38131,7 @@
         <v>21</v>
       </c>
       <c r="H824" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J824" s="8">
         <v>0</v>
@@ -38158,7 +38158,7 @@
         <v>21</v>
       </c>
       <c r="H825" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J825" s="8">
         <v>0</v>
@@ -38185,7 +38185,7 @@
         <v>21</v>
       </c>
       <c r="H826" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J826" s="8">
         <v>0</v>
@@ -38212,7 +38212,7 @@
         <v>21</v>
       </c>
       <c r="H827" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J827" s="8">
         <v>0</v>
@@ -38239,7 +38239,7 @@
         <v>21</v>
       </c>
       <c r="H828" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J828" s="8">
         <v>0</v>
@@ -38266,7 +38266,7 @@
         <v>21</v>
       </c>
       <c r="H829" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J829" s="8">
         <v>0</v>
@@ -38293,7 +38293,7 @@
         <v>21</v>
       </c>
       <c r="H830" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J830" s="8">
         <v>0</v>
@@ -38320,7 +38320,7 @@
         <v>21</v>
       </c>
       <c r="H831" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J831" s="8">
         <v>0</v>
@@ -38347,7 +38347,7 @@
         <v>21</v>
       </c>
       <c r="H832" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J832" s="8">
         <v>0</v>
@@ -38374,7 +38374,7 @@
         <v>21</v>
       </c>
       <c r="H833" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J833" s="8">
         <v>0</v>
@@ -38401,7 +38401,7 @@
         <v>21</v>
       </c>
       <c r="H834" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J834" s="8">
         <v>0</v>
@@ -38428,7 +38428,7 @@
         <v>21</v>
       </c>
       <c r="H835" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J835" s="8">
         <v>0</v>
@@ -38455,7 +38455,7 @@
         <v>27</v>
       </c>
       <c r="H836" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J836" s="8">
         <v>0</v>
@@ -38482,7 +38482,7 @@
         <v>27</v>
       </c>
       <c r="H837" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J837" s="8">
         <v>0</v>
@@ -38509,7 +38509,7 @@
         <v>27</v>
       </c>
       <c r="H838" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J838" s="8">
         <v>0</v>
@@ -38536,7 +38536,7 @@
         <v>27</v>
       </c>
       <c r="H839" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J839" s="8">
         <v>0</v>
@@ -38563,7 +38563,7 @@
         <v>27</v>
       </c>
       <c r="H840" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J840" s="8">
         <v>0</v>
@@ -38590,7 +38590,7 @@
         <v>27</v>
       </c>
       <c r="H841" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J841" s="8">
         <v>0</v>
@@ -38617,7 +38617,7 @@
         <v>21</v>
       </c>
       <c r="H842" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J842" s="8">
         <v>0</v>
@@ -38644,7 +38644,7 @@
         <v>21</v>
       </c>
       <c r="H843" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J843" s="8">
         <v>0</v>
@@ -38671,7 +38671,7 @@
         <v>21</v>
       </c>
       <c r="H844" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J844" s="8">
         <v>0</v>
@@ -38698,7 +38698,7 @@
         <v>21</v>
       </c>
       <c r="H845" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J845" s="8">
         <v>0</v>
@@ -38725,7 +38725,7 @@
         <v>21</v>
       </c>
       <c r="H846" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J846" s="8">
         <v>0</v>
@@ -38752,7 +38752,7 @@
         <v>21</v>
       </c>
       <c r="H847" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J847" s="8">
         <v>0</v>
@@ -38779,7 +38779,7 @@
         <v>27</v>
       </c>
       <c r="H848" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J848" s="8">
         <v>0</v>
@@ -38806,7 +38806,7 @@
         <v>27</v>
       </c>
       <c r="H849" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J849" s="8">
         <v>0</v>
@@ -38833,7 +38833,7 @@
         <v>27</v>
       </c>
       <c r="H850" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J850" s="8">
         <v>0</v>
@@ -38860,7 +38860,7 @@
         <v>27</v>
       </c>
       <c r="H851" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J851" s="8">
         <v>0</v>
@@ -38887,7 +38887,7 @@
         <v>27</v>
       </c>
       <c r="H852" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J852" s="8">
         <v>0</v>
@@ -38914,7 +38914,7 @@
         <v>27</v>
       </c>
       <c r="H853" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J853" s="8">
         <v>0</v>
@@ -38941,7 +38941,7 @@
         <v>21</v>
       </c>
       <c r="H854" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J854" s="8">
         <v>0</v>
@@ -38968,7 +38968,7 @@
         <v>21</v>
       </c>
       <c r="H855" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J855" s="8">
         <v>0</v>
@@ -38995,7 +38995,7 @@
         <v>21</v>
       </c>
       <c r="H856" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J856" s="8">
         <v>0</v>
@@ -39022,7 +39022,7 @@
         <v>21</v>
       </c>
       <c r="H857" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J857" s="8">
         <v>0</v>
@@ -39049,7 +39049,7 @@
         <v>21</v>
       </c>
       <c r="H858" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J858" s="8">
         <v>0</v>
@@ -39076,7 +39076,7 @@
         <v>21</v>
       </c>
       <c r="H859" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J859" s="8">
         <v>0</v>
@@ -39103,7 +39103,7 @@
         <v>27</v>
       </c>
       <c r="H860" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J860" s="8">
         <v>0</v>
@@ -39130,7 +39130,7 @@
         <v>27</v>
       </c>
       <c r="H861" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J861" s="8">
         <v>0</v>
@@ -39157,7 +39157,7 @@
         <v>27</v>
       </c>
       <c r="H862" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J862" s="8">
         <v>0</v>
@@ -39184,7 +39184,7 @@
         <v>27</v>
       </c>
       <c r="H863" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J863" s="8">
         <v>0</v>
@@ -39211,7 +39211,7 @@
         <v>27</v>
       </c>
       <c r="H864" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J864" s="8">
         <v>0</v>
@@ -39238,7 +39238,7 @@
         <v>27</v>
       </c>
       <c r="H865" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J865" s="8">
         <v>0</v>
@@ -39265,7 +39265,7 @@
         <v>27</v>
       </c>
       <c r="H866" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J866" s="8">
         <v>0</v>
@@ -39292,7 +39292,7 @@
         <v>27</v>
       </c>
       <c r="H867" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J867" s="8">
         <v>0</v>
@@ -39319,7 +39319,7 @@
         <v>27</v>
       </c>
       <c r="H868" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J868" s="8">
         <v>0</v>
@@ -39346,7 +39346,7 @@
         <v>27</v>
       </c>
       <c r="H869" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J869" s="8">
         <v>0</v>
@@ -39373,7 +39373,7 @@
         <v>27</v>
       </c>
       <c r="H870" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J870" s="8">
         <v>0</v>
@@ -39400,7 +39400,7 @@
         <v>27</v>
       </c>
       <c r="H871" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J871" s="8">
         <v>0</v>
@@ -39427,7 +39427,7 @@
         <v>21</v>
       </c>
       <c r="H872" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J872" s="8">
         <v>0</v>
@@ -39454,7 +39454,7 @@
         <v>21</v>
       </c>
       <c r="H873" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J873" s="8">
         <v>0</v>
@@ -39481,7 +39481,7 @@
         <v>21</v>
       </c>
       <c r="H874" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J874" s="8">
         <v>0</v>
@@ -39508,7 +39508,7 @@
         <v>21</v>
       </c>
       <c r="H875" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J875" s="8">
         <v>0</v>
@@ -39535,7 +39535,7 @@
         <v>21</v>
       </c>
       <c r="H876" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J876" s="8">
         <v>0</v>
@@ -39562,7 +39562,7 @@
         <v>21</v>
       </c>
       <c r="H877" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J877" s="8">
         <v>0</v>
@@ -39589,7 +39589,7 @@
         <v>21</v>
       </c>
       <c r="H878" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J878" s="8">
         <v>0</v>
@@ -39616,7 +39616,7 @@
         <v>21</v>
       </c>
       <c r="H879" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J879" s="8">
         <v>0</v>
@@ -39643,7 +39643,7 @@
         <v>21</v>
       </c>
       <c r="H880" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J880" s="8">
         <v>0</v>
@@ -39670,7 +39670,7 @@
         <v>21</v>
       </c>
       <c r="H881" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J881" s="8">
         <v>0</v>
@@ -39697,7 +39697,7 @@
         <v>21</v>
       </c>
       <c r="H882" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J882" s="8">
         <v>0</v>
@@ -39724,7 +39724,7 @@
         <v>21</v>
       </c>
       <c r="H883" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J883" s="8">
         <v>0</v>
@@ -39751,7 +39751,7 @@
         <v>27</v>
       </c>
       <c r="H884" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J884" s="8">
         <v>0</v>
@@ -39778,7 +39778,7 @@
         <v>27</v>
       </c>
       <c r="H885" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J885" s="8">
         <v>0</v>
@@ -39805,7 +39805,7 @@
         <v>27</v>
       </c>
       <c r="H886" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J886" s="8">
         <v>0</v>
@@ -39832,7 +39832,7 @@
         <v>27</v>
       </c>
       <c r="H887" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J887" s="8">
         <v>0</v>
@@ -39859,7 +39859,7 @@
         <v>27</v>
       </c>
       <c r="H888" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J888" s="8">
         <v>0</v>
@@ -39886,7 +39886,7 @@
         <v>27</v>
       </c>
       <c r="H889" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J889" s="8">
         <v>0</v>
@@ -39913,7 +39913,7 @@
         <v>21</v>
       </c>
       <c r="H890" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J890" s="8">
         <v>0</v>
@@ -39940,7 +39940,7 @@
         <v>21</v>
       </c>
       <c r="H891" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J891" s="8">
         <v>0</v>
@@ -39967,7 +39967,7 @@
         <v>21</v>
       </c>
       <c r="H892" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J892" s="8">
         <v>0</v>
@@ -39994,7 +39994,7 @@
         <v>21</v>
       </c>
       <c r="H893" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J893" s="8">
         <v>0</v>
@@ -40021,7 +40021,7 @@
         <v>21</v>
       </c>
       <c r="H894" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J894" s="8">
         <v>0</v>
@@ -40048,7 +40048,7 @@
         <v>21</v>
       </c>
       <c r="H895" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J895" s="8">
         <v>0</v>
@@ -40075,7 +40075,7 @@
         <v>27</v>
       </c>
       <c r="H896" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J896" s="8">
         <v>0</v>
@@ -40102,7 +40102,7 @@
         <v>27</v>
       </c>
       <c r="H897" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J897" s="8">
         <v>0</v>
@@ -40129,7 +40129,7 @@
         <v>27</v>
       </c>
       <c r="H898" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J898" s="8">
         <v>0</v>
@@ -40156,7 +40156,7 @@
         <v>27</v>
       </c>
       <c r="H899" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J899" s="8">
         <v>0</v>
@@ -40183,7 +40183,7 @@
         <v>27</v>
       </c>
       <c r="H900" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J900" s="8">
         <v>0</v>
@@ -40210,7 +40210,7 @@
         <v>27</v>
       </c>
       <c r="H901" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J901" s="8">
         <v>0</v>
@@ -40237,7 +40237,7 @@
         <v>21</v>
       </c>
       <c r="H902" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J902" s="8">
         <v>0</v>
@@ -40264,7 +40264,7 @@
         <v>21</v>
       </c>
       <c r="H903" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J903" s="8">
         <v>0</v>
@@ -40291,7 +40291,7 @@
         <v>21</v>
       </c>
       <c r="H904" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J904" s="8">
         <v>0</v>
@@ -40318,7 +40318,7 @@
         <v>21</v>
       </c>
       <c r="H905" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J905" s="8">
         <v>0</v>
@@ -40345,7 +40345,7 @@
         <v>21</v>
       </c>
       <c r="H906" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J906" s="8">
         <v>0</v>
@@ -40372,7 +40372,7 @@
         <v>21</v>
       </c>
       <c r="H907" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J907" s="8">
         <v>0</v>
@@ -40399,7 +40399,7 @@
         <v>27</v>
       </c>
       <c r="H908" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J908" s="8">
         <v>0</v>
@@ -40426,7 +40426,7 @@
         <v>27</v>
       </c>
       <c r="H909" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J909" s="8">
         <v>0</v>
@@ -40453,7 +40453,7 @@
         <v>27</v>
       </c>
       <c r="H910" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J910" s="8">
         <v>0</v>
@@ -40480,7 +40480,7 @@
         <v>27</v>
       </c>
       <c r="H911" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J911" s="8">
         <v>0</v>
@@ -40507,7 +40507,7 @@
         <v>27</v>
       </c>
       <c r="H912" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J912" s="8">
         <v>0</v>
@@ -40534,7 +40534,7 @@
         <v>27</v>
       </c>
       <c r="H913" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J913" s="8">
         <v>0</v>
@@ -40561,7 +40561,7 @@
         <v>27</v>
       </c>
       <c r="H914" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J914" s="8">
         <v>0</v>
@@ -40588,7 +40588,7 @@
         <v>27</v>
       </c>
       <c r="H915" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J915" s="8">
         <v>0</v>
@@ -40615,7 +40615,7 @@
         <v>27</v>
       </c>
       <c r="H916" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J916" s="8">
         <v>0</v>
@@ -40642,7 +40642,7 @@
         <v>27</v>
       </c>
       <c r="H917" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J917" s="8">
         <v>0</v>
@@ -40669,7 +40669,7 @@
         <v>27</v>
       </c>
       <c r="H918" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J918" s="8">
         <v>0</v>
@@ -40696,7 +40696,7 @@
         <v>27</v>
       </c>
       <c r="H919" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J919" s="8">
         <v>0</v>
@@ -40723,7 +40723,7 @@
         <v>21</v>
       </c>
       <c r="H920" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J920" s="8">
         <v>0</v>
@@ -40750,7 +40750,7 @@
         <v>21</v>
       </c>
       <c r="H921" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J921" s="8">
         <v>0</v>
@@ -40777,7 +40777,7 @@
         <v>21</v>
       </c>
       <c r="H922" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J922" s="8">
         <v>0</v>
@@ -40804,7 +40804,7 @@
         <v>21</v>
       </c>
       <c r="H923" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J923" s="8">
         <v>0</v>
@@ -40831,7 +40831,7 @@
         <v>21</v>
       </c>
       <c r="H924" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J924" s="8">
         <v>0</v>
@@ -40858,7 +40858,7 @@
         <v>21</v>
       </c>
       <c r="H925" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J925" s="8">
         <v>0</v>
@@ -40885,7 +40885,7 @@
         <v>21</v>
       </c>
       <c r="H926" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J926" s="8">
         <v>0</v>
@@ -40912,7 +40912,7 @@
         <v>21</v>
       </c>
       <c r="H927" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J927" s="8">
         <v>0</v>
@@ -40939,7 +40939,7 @@
         <v>21</v>
       </c>
       <c r="H928" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J928" s="8">
         <v>0</v>
@@ -40966,7 +40966,7 @@
         <v>21</v>
       </c>
       <c r="H929" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J929" s="8">
         <v>0</v>
@@ -40993,7 +40993,7 @@
         <v>21</v>
       </c>
       <c r="H930" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J930" s="8">
         <v>0</v>
@@ -41020,7 +41020,7 @@
         <v>21</v>
       </c>
       <c r="H931" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J931" s="8">
         <v>0</v>
@@ -41047,7 +41047,7 @@
         <v>27</v>
       </c>
       <c r="H932" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J932" s="8">
         <v>0</v>
@@ -41074,7 +41074,7 @@
         <v>27</v>
       </c>
       <c r="H933" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J933" s="8">
         <v>0</v>
@@ -41101,7 +41101,7 @@
         <v>27</v>
       </c>
       <c r="H934" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J934" s="8">
         <v>0</v>
@@ -41128,7 +41128,7 @@
         <v>27</v>
       </c>
       <c r="H935" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J935" s="8">
         <v>0</v>
@@ -41155,7 +41155,7 @@
         <v>27</v>
       </c>
       <c r="H936" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J936" s="8">
         <v>0</v>
@@ -41182,7 +41182,7 @@
         <v>27</v>
       </c>
       <c r="H937" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J937" s="8">
         <v>0</v>
@@ -41209,7 +41209,7 @@
         <v>21</v>
       </c>
       <c r="H938" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J938" s="8">
         <v>0</v>
@@ -41236,7 +41236,7 @@
         <v>21</v>
       </c>
       <c r="H939" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J939" s="8">
         <v>0</v>
@@ -41263,7 +41263,7 @@
         <v>21</v>
       </c>
       <c r="H940" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J940" s="8">
         <v>0</v>
@@ -41290,7 +41290,7 @@
         <v>21</v>
       </c>
       <c r="H941" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J941" s="8">
         <v>0</v>
@@ -41317,7 +41317,7 @@
         <v>21</v>
       </c>
       <c r="H942" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J942" s="8">
         <v>0</v>
@@ -41344,7 +41344,7 @@
         <v>21</v>
       </c>
       <c r="H943" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J943" s="8">
         <v>0</v>
@@ -41371,7 +41371,7 @@
         <v>27</v>
       </c>
       <c r="H944" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J944" s="8">
         <v>0</v>
@@ -41398,7 +41398,7 @@
         <v>27</v>
       </c>
       <c r="H945" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J945" s="8">
         <v>0</v>
@@ -41425,7 +41425,7 @@
         <v>27</v>
       </c>
       <c r="H946" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J946" s="8">
         <v>0</v>
@@ -41452,7 +41452,7 @@
         <v>27</v>
       </c>
       <c r="H947" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J947" s="8">
         <v>0</v>
@@ -41479,7 +41479,7 @@
         <v>27</v>
       </c>
       <c r="H948" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J948" s="8">
         <v>0</v>
@@ -41506,7 +41506,7 @@
         <v>27</v>
       </c>
       <c r="H949" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J949" s="8">
         <v>0</v>
@@ -41533,7 +41533,7 @@
         <v>21</v>
       </c>
       <c r="H950" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J950" s="8">
         <v>0</v>
@@ -41560,7 +41560,7 @@
         <v>21</v>
       </c>
       <c r="H951" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J951" s="8">
         <v>0</v>
@@ -41587,7 +41587,7 @@
         <v>21</v>
       </c>
       <c r="H952" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J952" s="8">
         <v>0</v>
@@ -41614,7 +41614,7 @@
         <v>21</v>
       </c>
       <c r="H953" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J953" s="8">
         <v>0</v>
@@ -41641,7 +41641,7 @@
         <v>21</v>
       </c>
       <c r="H954" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J954" s="8">
         <v>0</v>
@@ -41668,7 +41668,7 @@
         <v>21</v>
       </c>
       <c r="H955" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J955" s="8">
         <v>0</v>
@@ -41695,7 +41695,7 @@
         <v>27</v>
       </c>
       <c r="H956" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J956" s="8">
         <v>0</v>
@@ -41722,7 +41722,7 @@
         <v>27</v>
       </c>
       <c r="H957" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J957" s="8">
         <v>0</v>
@@ -41749,7 +41749,7 @@
         <v>27</v>
       </c>
       <c r="H958" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J958" s="8">
         <v>0</v>
@@ -41776,7 +41776,7 @@
         <v>27</v>
       </c>
       <c r="H959" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J959" s="8">
         <v>0</v>
@@ -41803,7 +41803,7 @@
         <v>27</v>
       </c>
       <c r="H960" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J960" s="8">
         <v>0</v>
@@ -41830,7 +41830,7 @@
         <v>27</v>
       </c>
       <c r="H961" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J961" s="8">
         <v>0</v>
@@ -41857,7 +41857,7 @@
         <v>27</v>
       </c>
       <c r="H962" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J962" s="8">
         <v>0</v>
@@ -41884,7 +41884,7 @@
         <v>27</v>
       </c>
       <c r="H963" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J963" s="8">
         <v>0</v>
@@ -41911,7 +41911,7 @@
         <v>27</v>
       </c>
       <c r="H964" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J964" s="8">
         <v>0</v>
@@ -41938,7 +41938,7 @@
         <v>27</v>
       </c>
       <c r="H965" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J965" s="8">
         <v>0</v>
@@ -41965,7 +41965,7 @@
         <v>27</v>
       </c>
       <c r="H966" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J966" s="8">
         <v>0</v>
@@ -41992,7 +41992,7 @@
         <v>27</v>
       </c>
       <c r="H967" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J967" s="8">
         <v>0</v>
@@ -42019,7 +42019,7 @@
         <v>21</v>
       </c>
       <c r="H968" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J968" s="8">
         <v>0</v>
@@ -42046,7 +42046,7 @@
         <v>21</v>
       </c>
       <c r="H969" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J969" s="8">
         <v>0</v>
@@ -42073,7 +42073,7 @@
         <v>21</v>
       </c>
       <c r="H970" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J970" s="8">
         <v>0</v>
@@ -42100,7 +42100,7 @@
         <v>21</v>
       </c>
       <c r="H971" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J971" s="8">
         <v>0</v>
@@ -42127,7 +42127,7 @@
         <v>21</v>
       </c>
       <c r="H972" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J972" s="8">
         <v>0</v>
@@ -42154,7 +42154,7 @@
         <v>21</v>
       </c>
       <c r="H973" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J973" s="8">
         <v>0</v>
@@ -42181,7 +42181,7 @@
         <v>21</v>
       </c>
       <c r="H974" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J974" s="8">
         <v>0</v>
@@ -42208,7 +42208,7 @@
         <v>21</v>
       </c>
       <c r="H975" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J975" s="8">
         <v>0</v>
@@ -42235,7 +42235,7 @@
         <v>21</v>
       </c>
       <c r="H976" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J976" s="8">
         <v>0</v>
@@ -42262,7 +42262,7 @@
         <v>21</v>
       </c>
       <c r="H977" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J977" s="8">
         <v>0</v>
@@ -42289,7 +42289,7 @@
         <v>21</v>
       </c>
       <c r="H978" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J978" s="8">
         <v>0</v>
@@ -42316,7 +42316,7 @@
         <v>21</v>
       </c>
       <c r="H979" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J979" s="8">
         <v>0</v>
@@ -42343,7 +42343,7 @@
         <v>27</v>
       </c>
       <c r="H980" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J980" s="8">
         <v>0</v>
@@ -42370,7 +42370,7 @@
         <v>27</v>
       </c>
       <c r="H981" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J981" s="8">
         <v>0</v>
@@ -42397,7 +42397,7 @@
         <v>27</v>
       </c>
       <c r="H982" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J982" s="8">
         <v>0</v>
@@ -42424,7 +42424,7 @@
         <v>27</v>
       </c>
       <c r="H983" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J983" s="8">
         <v>0</v>
@@ -42451,7 +42451,7 @@
         <v>27</v>
       </c>
       <c r="H984" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J984" s="8">
         <v>0</v>
@@ -42478,7 +42478,7 @@
         <v>27</v>
       </c>
       <c r="H985" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J985" s="8">
         <v>0</v>
@@ -42505,7 +42505,7 @@
         <v>27</v>
       </c>
       <c r="H986" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J986" s="8">
         <v>0</v>
@@ -42532,7 +42532,7 @@
         <v>27</v>
       </c>
       <c r="H987" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J987" s="8">
         <v>0</v>
@@ -42559,7 +42559,7 @@
         <v>27</v>
       </c>
       <c r="H988" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J988" s="8">
         <v>0</v>
@@ -42586,7 +42586,7 @@
         <v>27</v>
       </c>
       <c r="H989" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J989" s="8">
         <v>0</v>
@@ -42613,7 +42613,7 @@
         <v>27</v>
       </c>
       <c r="H990" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J990" s="8">
         <v>0</v>
@@ -42640,7 +42640,7 @@
         <v>27</v>
       </c>
       <c r="H991" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J991" s="8">
         <v>0</v>
@@ -42667,7 +42667,7 @@
         <v>27</v>
       </c>
       <c r="H992" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J992" s="8">
         <v>0</v>
@@ -42694,7 +42694,7 @@
         <v>27</v>
       </c>
       <c r="H993" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J993" s="8">
         <v>0</v>
@@ -42721,7 +42721,7 @@
         <v>27</v>
       </c>
       <c r="H994" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J994" s="8">
         <v>0</v>
@@ -42748,7 +42748,7 @@
         <v>27</v>
       </c>
       <c r="H995" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J995" s="8">
         <v>0</v>
@@ -42775,7 +42775,7 @@
         <v>27</v>
       </c>
       <c r="H996" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J996" s="8">
         <v>0</v>
@@ -42802,7 +42802,7 @@
         <v>27</v>
       </c>
       <c r="H997" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J997" s="8">
         <v>0</v>
@@ -42829,7 +42829,7 @@
         <v>27</v>
       </c>
       <c r="H998" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J998" s="8">
         <v>0</v>
@@ -42856,7 +42856,7 @@
         <v>27</v>
       </c>
       <c r="H999" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J999" s="8">
         <v>0</v>
@@ -42883,7 +42883,7 @@
         <v>27</v>
       </c>
       <c r="H1000" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J1000" s="8">
         <v>0</v>
@@ -42910,7 +42910,7 @@
         <v>27</v>
       </c>
       <c r="H1001" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J1001" s="8">
         <v>0</v>
@@ -42937,7 +42937,7 @@
         <v>27</v>
       </c>
       <c r="H1002" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J1002" s="8">
         <v>0</v>
@@ -42964,7 +42964,7 @@
         <v>27</v>
       </c>
       <c r="H1003" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J1003" s="8">
         <v>0</v>
@@ -42988,7 +42988,7 @@
         <v>27</v>
       </c>
       <c r="H1004" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J1004" s="8">
         <v>0</v>
@@ -43012,7 +43012,7 @@
         <v>27</v>
       </c>
       <c r="H1005" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J1005" s="8">
         <v>0</v>
@@ -43036,7 +43036,7 @@
         <v>27</v>
       </c>
       <c r="H1006" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J1006" s="8">
         <v>0</v>
@@ -43060,7 +43060,7 @@
         <v>27</v>
       </c>
       <c r="H1007" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J1007" s="8">
         <v>0</v>
@@ -43084,7 +43084,7 @@
         <v>27</v>
       </c>
       <c r="H1008" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J1008" s="8">
         <v>0</v>
@@ -43108,7 +43108,7 @@
         <v>27</v>
       </c>
       <c r="H1009" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J1009" s="8">
         <v>0</v>
@@ -43125,9 +43125,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:CI1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BL1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AR1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BY46" sqref="BY46"/>
+      <selection pane="bottomLeft" activeCell="AZ2" sqref="AZ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -43292,7 +43292,7 @@
         <v>67</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="BA1" s="1" t="s">
         <v>68</v>
@@ -43397,7 +43397,7 @@
         <v>101</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:87" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
